--- a/TESTING/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
+++ b/TESTING/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,31 +418,31 @@
         <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
-        <v>2.16938082317685e-06</v>
+        <v>1.003911302182094e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>2.733628689521794e-06</v>
+        <v>-5.183561636333743e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.296449727743736e-06</v>
+        <v>2.16004059805745e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>9.173380045946547e-08</v>
+        <v>4.783558708851387e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.412606892824562e-07</v>
+        <v>1.683197856916601e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>1.983651039352839e-07</v>
+        <v>1.665485124651987e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>133.4988503375235</v>
+        <v>349.0285552759614</v>
       </c>
       <c r="I2" t="n">
-        <v>6.950220670345042e-28</v>
+        <v>2.842658304925875e-74</v>
       </c>
       <c r="J2" t="n">
-        <v>33.37471258438087</v>
+        <v>87.25713881899036</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
-        <v>3.927429774321854e-06</v>
+        <v>2.800369958600767e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>3.978484077348175e-06</v>
+        <v>-8.450365103143086e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.802374413496111e-06</v>
+        <v>1.833057012539199e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>1.606189891470658e-07</v>
+        <v>1.137537186122309e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>2.216095147611771e-07</v>
+        <v>2.413327894151286e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>3.438324123969073e-07</v>
+        <v>2.60487196833895e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>93.03530293894833</v>
+        <v>86.12527858528109</v>
       </c>
       <c r="I3" t="n">
-        <v>2.981917498041629e-19</v>
+        <v>8.753946463347571e-18</v>
       </c>
       <c r="J3" t="n">
-        <v>23.25882573473708</v>
+        <v>21.53131964632027</v>
       </c>
     </row>
     <row r="4">
@@ -482,7231 +482,7039 @@
         <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
-        <v>4.364524003230396e-06</v>
+        <v>4.222833341054923e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.959649626669614e-07</v>
+        <v>-1.544889712303234e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.429780175141169e-06</v>
+        <v>-2.976888849019848e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>1.826471518498921e-07</v>
+        <v>1.556927616845236e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>3.661271578947759e-07</v>
+        <v>2.501780381455601e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>3.643410637861937e-07</v>
+        <v>3.045840880341791e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>105.8557570776122</v>
+        <v>75.47436437247156</v>
       </c>
       <c r="I4" t="n">
-        <v>5.565801938657289e-22</v>
+        <v>1.581532205518632e-15</v>
       </c>
       <c r="J4" t="n">
-        <v>26.46393926940306</v>
+        <v>18.86859109311789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.432206382526072</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
-        <v>5.735176468817984e-06</v>
+        <v>4.443427064624834e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.450494377550197e-07</v>
+        <v>-2.395601246737652e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.150016527915777e-07</v>
+        <v>3.058591923206077e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>2.272490909798648e-07</v>
+        <v>1.656672130136983e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>4.136105055063718e-07</v>
+        <v>3.250001427432392e-07</v>
       </c>
       <c r="G5" t="n">
-        <v>4.323941535681536e-07</v>
+        <v>3.155503219363129e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>82.58240504643078</v>
+        <v>33.8275504471857</v>
       </c>
       <c r="I5" t="n">
-        <v>4.939791599285877e-17</v>
+        <v>8.084029185482681e-07</v>
       </c>
       <c r="J5" t="n">
-        <v>20.64560126160769</v>
+        <v>8.456887611796425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
-        <v>6.497790501275796e-06</v>
+        <v>4.632868725076932e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>3.894012739486278e-06</v>
+        <v>-7.670325707818536e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.080254096606651e-06</v>
+        <v>1.135812703675106e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>2.417596494967309e-07</v>
+        <v>1.846404722100773e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>3.883708120488438e-07</v>
+        <v>3.762461441915588e-07</v>
       </c>
       <c r="G6" t="n">
-        <v>5.107870753394354e-07</v>
+        <v>4.071959430918961e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>80.28567704524598</v>
+        <v>88.58632204794664</v>
       </c>
       <c r="I6" t="n">
-        <v>1.515238487080109e-16</v>
+        <v>2.628797980917224e-18</v>
       </c>
       <c r="J6" t="n">
-        <v>20.07141926131149</v>
+        <v>22.14658051198666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
-        <v>6.134543311981063e-06</v>
+        <v>4.906521708325058e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>3.865196055623098e-06</v>
+        <v>2.520087872220976e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.61572750839605e-06</v>
+        <v>1.906615339858022e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>2.636682517882229e-07</v>
+        <v>1.962682584083572e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>3.10402006807501e-07</v>
+        <v>3.298301304824804e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>5.188302941295231e-07</v>
+        <v>3.999414178540664e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>111.8558580353155</v>
+        <v>41.64495524556049</v>
       </c>
       <c r="I7" t="n">
-        <v>2.925057638058118e-23</v>
+        <v>1.976136435760023e-08</v>
       </c>
       <c r="J7" t="n">
-        <v>27.96396450882888</v>
+        <v>10.41123881139012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
-        <v>6.986859691796325e-06</v>
+        <v>4.488212246439369e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>9.299504540897394e-07</v>
+        <v>5.609567480067538e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.21862333401841e-07</v>
+        <v>5.282756590114921e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>2.795243457979075e-07</v>
+        <v>1.689196002998154e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>5.16441873539163e-07</v>
+        <v>2.959346544004957e-07</v>
       </c>
       <c r="G8" t="n">
-        <v>5.78893106535376e-07</v>
+        <v>3.885315275449176e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>78.87157070731635</v>
+        <v>68.16291736254638</v>
       </c>
       <c r="I8" t="n">
-        <v>3.020104106749358e-16</v>
+        <v>5.542276676882325e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>19.71789267682909</v>
+        <v>17.0407293406366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
-        <v>6.243785058848066e-06</v>
+        <v>4.968249852521265e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>6.228890304185505e-06</v>
+        <v>-2.349291488271755e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.004908018321556e-06</v>
+        <v>2.047101150482896e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>2.291754969719797e-07</v>
+        <v>1.667214974611379e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>3.30772461687401e-07</v>
+        <v>3.13491912646481e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>4.806825109274264e-07</v>
+        <v>3.657554820656292e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>80.37646607665675</v>
+        <v>43.96831336329718</v>
       </c>
       <c r="I9" t="n">
-        <v>1.449590436971515e-16</v>
+        <v>6.513743269333404e-09</v>
       </c>
       <c r="J9" t="n">
-        <v>20.09411651916419</v>
+        <v>10.9920783408243</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
-        <v>8.639348745538617e-06</v>
+        <v>3.696697635889545e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>1.642888644352856e-06</v>
+        <v>-1.108374240876616e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.815089435819072e-06</v>
+        <v>3.05557659308525e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>2.85234783186591e-07</v>
+        <v>1.560259249041811e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>4.349619295969886e-07</v>
+        <v>3.101249850221713e-07</v>
       </c>
       <c r="G10" t="n">
-        <v>5.433537100632082e-07</v>
+        <v>3.752015571603257e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>103.2514474185272</v>
+        <v>76.19342891311639</v>
       </c>
       <c r="I10" t="n">
-        <v>1.997244114780731e-21</v>
+        <v>1.114159570832802e-15</v>
       </c>
       <c r="J10" t="n">
-        <v>25.8128618546318</v>
+        <v>19.0483572282791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
-        <v>6.561589159446302e-06</v>
+        <v>4.699351316718316e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>1.300685304658277e-06</v>
+        <v>-6.867705347182657e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.148072031070125e-07</v>
+        <v>1.346752790089713e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>2.641076255818901e-07</v>
+        <v>1.836336479358745e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>4.42182583910001e-07</v>
+        <v>3.442601823469019e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>5.674694572195452e-07</v>
+        <v>3.863580984047838e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>100.8850467467785</v>
+        <v>40.51578939305083</v>
       </c>
       <c r="I11" t="n">
-        <v>6.374009541307788e-21</v>
+        <v>3.385543277088448e-08</v>
       </c>
       <c r="J11" t="n">
-        <v>25.22126168669463</v>
+        <v>10.12894734826271</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
-        <v>7.897095273794803e-06</v>
+        <v>3.688536907179176e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>8.144434725835823e-07</v>
+        <v>-6.72476335533636e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.85450758165526e-06</v>
+        <v>2.234001963651731e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>2.974520783318557e-07</v>
+        <v>1.512340765088285e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>4.840325175810228e-07</v>
+        <v>3.461776627473435e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>5.585267160911605e-07</v>
+        <v>3.909697784863075e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31744689507639</v>
+        <v>257.5393198606143</v>
       </c>
       <c r="I12" t="n">
-        <v>7.354052397319145e-15</v>
+        <v>1.546038918558029e-54</v>
       </c>
       <c r="J12" t="n">
-        <v>18.0793617237691</v>
+        <v>64.38482996515359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
-        <v>7.561875137287457e-06</v>
+        <v>3.324080995577811e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>5.727267520014002e-06</v>
+        <v>7.198654631161031e-08</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.022676838051292e-06</v>
+        <v>1.036069571795128e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>2.761063865256664e-07</v>
+        <v>1.315087023854919e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>3.201579822584473e-07</v>
+        <v>2.492792303129648e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>5.588726722152653e-07</v>
+        <v>2.878289707179593e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>108.1917730880447</v>
+        <v>37.56461854614724</v>
       </c>
       <c r="I13" t="n">
-        <v>1.768374142423759e-22</v>
+        <v>1.377919075955196e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>27.04794327201119</v>
+        <v>9.391154636536811</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
-        <v>6.114927838990574e-06</v>
+        <v>6.648397401359277e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>2.878539365238183e-06</v>
+        <v>6.733728583319401e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>9.294108876262819e-08</v>
+        <v>-3.820295491792663e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>2.16443325525574e-07</v>
+        <v>1.978209316824941e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>4.078741618312191e-07</v>
+        <v>3.311299632966902e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>5.180330174660418e-07</v>
+        <v>4.293332366021164e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>5.459000764523791</v>
+        <v>6.122842206789489</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2433569208143981</v>
+        <v>0.1901602453771378</v>
       </c>
       <c r="J14" t="n">
-        <v>1.364750191130948</v>
+        <v>1.530710551697372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
-        <v>9.561579754006008e-06</v>
+        <v>5.30203474492719e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>1.204824717389982e-06</v>
+        <v>9.756969825270342e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>7.073465583734718e-08</v>
+        <v>-3.304535943908029e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>2.766444637966776e-07</v>
+        <v>1.728871096755255e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>5.373971018430533e-07</v>
+        <v>2.797315076552198e-07</v>
       </c>
       <c r="G15" t="n">
-        <v>6.4621785502012e-07</v>
+        <v>3.686851569806323e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>10.56740277047589</v>
+        <v>2.119144559763629</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03188109156541998</v>
+        <v>0.7138560484644846</v>
       </c>
       <c r="J15" t="n">
-        <v>2.641850692618972</v>
+        <v>0.5297861399409073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
-        <v>8.496428884888671e-06</v>
+        <v>5.429984847962041e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>1.741157132039427e-06</v>
+        <v>-8.165542584593475e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.163765168625649e-06</v>
+        <v>4.991030678378759e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>2.6511643595745e-07</v>
+        <v>1.955165881123172e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>5.074556057073994e-07</v>
+        <v>3.159795310076439e-07</v>
       </c>
       <c r="G16" t="n">
-        <v>5.717993024779554e-07</v>
+        <v>3.947962628030766e-07</v>
       </c>
       <c r="H16" t="n">
-        <v>72.44084594205306</v>
+        <v>27.14294351741344</v>
       </c>
       <c r="I16" t="n">
-        <v>6.92550545369376e-15</v>
+        <v>1.859893697705944e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>18.11021148551326</v>
+        <v>6.785735879353361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
-        <v>7.28564371083721e-06</v>
+        <v>4.722723868724922e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.456280014242981e-07</v>
+        <v>7.90873677602351e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>1.092948580125497e-06</v>
+        <v>-2.235166560611845e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>2.611973498091948e-07</v>
+        <v>1.743312291403101e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>4.85057968833604e-07</v>
+        <v>3.025307924528285e-07</v>
       </c>
       <c r="G17" t="n">
-        <v>5.729643346873378e-07</v>
+        <v>3.771473946991065e-07</v>
       </c>
       <c r="H17" t="n">
-        <v>18.31760036407703</v>
+        <v>17.32196238959778</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001069611437289533</v>
+        <v>0.00167341977189116</v>
       </c>
       <c r="J17" t="n">
-        <v>4.579400091019258</v>
+        <v>4.330490597399445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
-        <v>8.061783740511197e-06</v>
+        <v>4.845532868701418e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.67898064849476e-07</v>
+        <v>9.515642161071506e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>4.000190710616392e-07</v>
+        <v>6.062301815774007e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>2.771054273787746e-07</v>
+        <v>1.880707939859976e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>5.575731603085855e-07</v>
+        <v>3.254649612149007e-07</v>
       </c>
       <c r="G18" t="n">
-        <v>6.233029768813608e-07</v>
+        <v>4.2843242361131e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>15.23136967240346</v>
+        <v>21.45638880421089</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004244630630190604</v>
+        <v>0.0002570606056545146</v>
       </c>
       <c r="J18" t="n">
-        <v>3.807842418100865</v>
+        <v>5.364097201052722</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
-        <v>6.728868020851214e-06</v>
+        <v>6.241724600402411e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>5.452726908913041e-06</v>
+        <v>1.268318025863799e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.282813430883999e-06</v>
+        <v>-5.960617703346908e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>2.628869952814345e-07</v>
+        <v>2.322857561045487e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>4.046526519496254e-07</v>
+        <v>3.86202804589165e-07</v>
       </c>
       <c r="G19" t="n">
-        <v>5.896206076777688e-07</v>
+        <v>4.981096089244542e-07</v>
       </c>
       <c r="H19" t="n">
-        <v>58.54167711518667</v>
+        <v>14.55786463829932</v>
       </c>
       <c r="I19" t="n">
-        <v>5.873010612762319e-12</v>
+        <v>0.005711815779063444</v>
       </c>
       <c r="J19" t="n">
-        <v>14.63541927879667</v>
+        <v>3.639466159574831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
-        <v>8.378171020220063e-06</v>
+        <v>5.136102612011141e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.215929931208805e-06</v>
+        <v>-4.787665386973965e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.603277571635515e-06</v>
+        <v>2.502563313723845e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>3.11950547846472e-07</v>
+        <v>2.110379790602829e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>5.703192273296541e-07</v>
+        <v>4.064472308566559e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>6.88254436673021e-07</v>
+        <v>4.543582863528637e-07</v>
       </c>
       <c r="H20" t="n">
-        <v>45.29393887942705</v>
+        <v>14.58162609456262</v>
       </c>
       <c r="I20" t="n">
-        <v>3.453994411955611e-09</v>
+        <v>0.005652456738961219</v>
       </c>
       <c r="J20" t="n">
-        <v>11.32348471985676</v>
+        <v>3.645406523640656</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
-        <v>7.577185392403076e-06</v>
+        <v>5.984743736077724e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>2.455850090935177e-06</v>
+        <v>1.618586723907426e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.276074542916118e-06</v>
+        <v>1.755768645405694e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>3.117045852895377e-07</v>
+        <v>2.54744196405606e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>5.441011984299678e-07</v>
+        <v>4.70737537694228e-07</v>
       </c>
       <c r="G21" t="n">
-        <v>6.4386508170012e-07</v>
+        <v>5.6506144458844e-07</v>
       </c>
       <c r="H21" t="n">
-        <v>43.98229990710004</v>
+        <v>22.84221950971126</v>
       </c>
       <c r="I21" t="n">
-        <v>6.470317892728407e-09</v>
+        <v>0.0001361555834551621</v>
       </c>
       <c r="J21" t="n">
-        <v>10.99557497677501</v>
+        <v>5.710554877427816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
-        <v>8.229690317447685e-06</v>
+        <v>1.139468928643491e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>5.331751059512875e-06</v>
+        <v>7.768768294760196e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.804749178209865e-06</v>
+        <v>-4.053807155197833e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>3.568402518651592e-07</v>
+        <v>5.723393064942188e-07</v>
       </c>
       <c r="F22" t="n">
-        <v>5.793879259753218e-07</v>
+        <v>9.223646936707071e-07</v>
       </c>
       <c r="G22" t="n">
-        <v>7.637894950588544e-07</v>
+        <v>1.170275661820718e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>50.41388071475815</v>
+        <v>12.21011822067061</v>
       </c>
       <c r="I22" t="n">
-        <v>2.959247009778788e-10</v>
+        <v>0.01585529081050259</v>
       </c>
       <c r="J22" t="n">
-        <v>12.60347017868954</v>
+        <v>3.052529555167652</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
-        <v>1.497718496576119e-05</v>
+        <v>1.277872835955177e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>2.838460008066919e-06</v>
+        <v>-1.094458470187428e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.002001462888317e-06</v>
+        <v>2.351221642969767e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>7.617235510801342e-07</v>
+        <v>7.341346705108242e-07</v>
       </c>
       <c r="F23" t="n">
-        <v>1.42720237377496e-06</v>
+        <v>1.178679953804505e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>1.744664388581964e-06</v>
+        <v>1.571617292992605e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>13.1169510750605</v>
+        <v>20.60644516951476</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01071826464957294</v>
+        <v>0.0003789392275525932</v>
       </c>
       <c r="J23" t="n">
-        <v>3.279237768765126</v>
+        <v>5.151611292378691</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
-        <v>1.56434739853421e-05</v>
+        <v>1.700400580479619e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>1.697514021275147e-06</v>
+        <v>-6.607710640509979e-07</v>
       </c>
       <c r="D24" t="n">
-        <v>5.36522247774063e-06</v>
+        <v>4.394018947756849e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>8.934858697598652e-07</v>
+        <v>9.52160807701463e-07</v>
       </c>
       <c r="F24" t="n">
-        <v>2.001357626337581e-06</v>
+        <v>1.752870328473374e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.232734666682765e-06</v>
+        <v>2.09427535457168e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>22.09674939589878</v>
+        <v>25.73232476249944</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001917256858715885</v>
+        <v>3.583050723452227e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>5.524187348974695</v>
+        <v>6.43308119062486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
-        <v>3.019622294479482e-05</v>
+        <v>1.866350771365947e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>7.514141179991932e-06</v>
+        <v>-1.921985462401359e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.202910571668987e-06</v>
+        <v>3.268397351898702e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>1.541308521435295e-06</v>
+        <v>9.569736654634123e-07</v>
       </c>
       <c r="F25" t="n">
-        <v>2.698692439226233e-06</v>
+        <v>1.667187922389361e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>3.276229330566172e-06</v>
+        <v>2.092282928419581e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>13.22110084064553</v>
+        <v>24.75550031201754</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01024449365117585</v>
+        <v>5.633710027135894e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.305275210161382</v>
+        <v>6.188875078004386</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
-        <v>2.712214700104265e-05</v>
+        <v>1.642078524591032e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>3.495366175740072e-06</v>
+        <v>-3.884682501497316e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.389472004816032e-06</v>
+        <v>1.177935268157008e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>1.373060969526393e-06</v>
+        <v>9.060954741254594e-07</v>
       </c>
       <c r="F26" t="n">
-        <v>2.38218945117188e-06</v>
+        <v>1.706188529958161e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>2.999497896084748e-06</v>
+        <v>1.936517528765226e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>27.17429592115101</v>
+        <v>54.53250069875783</v>
       </c>
       <c r="I26" t="n">
-        <v>1.832934746191975e-05</v>
+        <v>4.070859674438288e-11</v>
       </c>
       <c r="J26" t="n">
-        <v>6.793573980287753</v>
+        <v>13.63312517468946</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
-        <v>2.925649609682504e-05</v>
+        <v>2.0031748659319e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.85542784403711e-07</v>
+        <v>-3.931698446695628e-07</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.508112682295719e-06</v>
+        <v>2.136778033919688e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>1.461004449868354e-06</v>
+        <v>1.051369587771867e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>2.756183395169812e-06</v>
+        <v>1.767161360125766e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>3.086783249694362e-06</v>
+        <v>2.173636226273265e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>11.96871349997278</v>
+        <v>1.227480828654754</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0175854424677822</v>
+        <v>0.8735536854251199</v>
       </c>
       <c r="J27" t="n">
-        <v>2.992178374993195</v>
+        <v>0.3068702071636886</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
-        <v>2.825026345080506e-05</v>
+        <v>1.833188143386869e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>3.296654240538308e-06</v>
+        <v>3.444083376003512e-07</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.155689610949647e-06</v>
+        <v>1.767693554315912e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>1.469846043539078e-06</v>
+        <v>9.93613016676873e-07</v>
       </c>
       <c r="F28" t="n">
-        <v>2.691341476891783e-06</v>
+        <v>1.802727807409956e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>3.084757158732014e-06</v>
+        <v>2.177291081191157e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>6.67880631329575</v>
+        <v>32.85819844099225</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1538670533270294</v>
+        <v>1.277049725790675e-06</v>
       </c>
       <c r="J28" t="n">
-        <v>1.669701578323938</v>
+        <v>8.214549610248064</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
-        <v>2.916243202569402e-05</v>
+        <v>1.910598828106061e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>3.607589215762411e-06</v>
+        <v>-2.280267729483699e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.764670453589726e-05</v>
+        <v>4.900360054282237e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>1.496259602841002e-06</v>
+        <v>9.872991075918741e-07</v>
       </c>
       <c r="F29" t="n">
-        <v>2.75351886028746e-06</v>
+        <v>1.714493095569943e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>3.131798032399183e-06</v>
+        <v>2.213625244437846e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>8.067540869095026</v>
+        <v>50.36293901120587</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08913518386019405</v>
+        <v>3.032639353418144e-10</v>
       </c>
       <c r="J29" t="n">
-        <v>2.016885217273757</v>
+        <v>12.59073475280147</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
-        <v>2.951438349229854e-05</v>
+        <v>1.877170094342035e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>4.017256017883382e-06</v>
+        <v>-1.698950561774878e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.181322519173031e-06</v>
+        <v>3.040632289936871e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>1.45402256644446e-06</v>
+        <v>9.65749125185574e-07</v>
       </c>
       <c r="F30" t="n">
-        <v>2.623778609729562e-06</v>
+        <v>1.687136841547654e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>3.263012945659614e-06</v>
+        <v>2.090982502766244e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>35.25155585971191</v>
+        <v>20.47376361379253</v>
       </c>
       <c r="I30" t="n">
-        <v>4.124167794073325e-07</v>
+        <v>0.000402554357621067</v>
       </c>
       <c r="J30" t="n">
-        <v>8.812888964927977</v>
+        <v>5.118440903448133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
-        <v>2.433759898339824e-05</v>
+        <v>1.877403849037332e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.220101536240663e-06</v>
+        <v>-4.607123904066422e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.337734489036294e-06</v>
+        <v>-1.470123284796839e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>1.327727631923651e-06</v>
+        <v>9.932409807982571e-07</v>
       </c>
       <c r="F31" t="n">
-        <v>2.210862185856882e-06</v>
+        <v>1.731130690067364e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.859798101845889e-06</v>
+        <v>1.989398357572783e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>85.45913451060569</v>
+        <v>47.24409440423344</v>
       </c>
       <c r="I31" t="n">
-        <v>1.21215988242674e-17</v>
+        <v>1.356436315186257e-09</v>
       </c>
       <c r="J31" t="n">
-        <v>21.36478362765142</v>
+        <v>11.81102360105836</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
-        <v>2.423461700029145e-05</v>
+        <v>1.779976037110028e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>6.51516391286505e-06</v>
+        <v>3.017594923817124e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.136977089954649e-05</v>
+        <v>1.222759752289635e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>1.334331038029349e-06</v>
+        <v>9.634992627202364e-07</v>
       </c>
       <c r="F32" t="n">
-        <v>2.078346741846836e-06</v>
+        <v>1.680044382797258e-06</v>
       </c>
       <c r="G32" t="n">
-        <v>2.685253860722134e-06</v>
+        <v>2.126227041539391e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>48.23976507081999</v>
+        <v>11.28648715224931</v>
       </c>
       <c r="I32" t="n">
-        <v>8.411737567703232e-10</v>
+        <v>0.02352613750787709</v>
       </c>
       <c r="J32" t="n">
-        <v>12.059941267705</v>
+        <v>2.821621788062327</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
-        <v>2.695744526151594e-05</v>
+        <v>1.652233499204064e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>1.150339277846211e-05</v>
+        <v>3.482588820634176e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>-6.324294404290831e-06</v>
+        <v>2.427226479744188e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>1.390088204898426e-06</v>
+        <v>8.663708472265994e-07</v>
       </c>
       <c r="F33" t="n">
-        <v>2.584090284879082e-06</v>
+        <v>1.553832597085794e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>3.2250365215708e-06</v>
+        <v>1.955159135758831e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>6.859849448718956</v>
+        <v>17.32246784746184</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1434825100076055</v>
+        <v>0.001673040668931601</v>
       </c>
       <c r="J33" t="n">
-        <v>1.714962362179739</v>
+        <v>4.33061696186546</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
-        <v>2.62822367498995e-05</v>
+        <v>1.975503332049129e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>2.095503351735617e-06</v>
+        <v>6.600988728120344e-07</v>
       </c>
       <c r="D34" t="n">
-        <v>7.152169265853804e-07</v>
+        <v>-3.017441368308636e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>1.31710337129907e-06</v>
+        <v>1.031598728091938e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>2.455424283240726e-06</v>
+        <v>1.71599460881138e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>2.882466706088036e-06</v>
+        <v>2.127703688167233e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>10.05490000653224</v>
+        <v>7.570846121026928</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03951298341633839</v>
+        <v>0.1086255507062666</v>
       </c>
       <c r="J34" t="n">
-        <v>2.51372500163306</v>
+        <v>1.892711530256732</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
-        <v>2.896363906154722e-05</v>
+        <v>1.73290483579689e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>5.632530172585808e-07</v>
+        <v>6.26788294748051e-07</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.531456416156291e-06</v>
+        <v>4.545507479454887e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>1.468495090005177e-06</v>
+        <v>8.745764335103602e-07</v>
       </c>
       <c r="F35" t="n">
-        <v>2.788643301078172e-06</v>
+        <v>1.561474053779555e-06</v>
       </c>
       <c r="G35" t="n">
-        <v>3.041319423091351e-06</v>
+        <v>1.883476331415607e-06</v>
       </c>
       <c r="H35" t="n">
-        <v>8.900060314420127</v>
+        <v>6.219121177047229</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06364662274813826</v>
+        <v>0.1833708858483139</v>
       </c>
       <c r="J35" t="n">
-        <v>2.225015078605032</v>
+        <v>1.554780294261807</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
-        <v>2.633458870824338e-05</v>
+        <v>1.683193934146222e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>1.082770027258237e-05</v>
+        <v>2.618258384662864e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>-5.063793629684284e-06</v>
+        <v>8.87458175740112e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>1.288158333948358e-06</v>
+        <v>8.311042579453239e-07</v>
       </c>
       <c r="F36" t="n">
-        <v>2.289318606289586e-06</v>
+        <v>1.407368725789444e-06</v>
       </c>
       <c r="G36" t="n">
-        <v>2.859022559167714e-06</v>
+        <v>1.790736217439722e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>11.92192476380006</v>
+        <v>2.498894636716279</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01794139540056287</v>
+        <v>0.6448337362956538</v>
       </c>
       <c r="J36" t="n">
-        <v>2.980481190950015</v>
+        <v>0.6247236591790697</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
-        <v>2.518435265833561e-05</v>
+        <v>1.098583513297806e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>5.520665136118927e-06</v>
+        <v>-3.147539313584159e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.763946414753889e-06</v>
+        <v>6.602339292528469e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>1.190724994785745e-06</v>
+        <v>5.927335748631179e-07</v>
       </c>
       <c r="F37" t="n">
-        <v>2.301513506486089e-06</v>
+        <v>1.00593387163066e-06</v>
       </c>
       <c r="G37" t="n">
-        <v>2.660384618559275e-06</v>
+        <v>1.252638797395804e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>8.384764107123681</v>
+        <v>38.86004355291968</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07845818338800634</v>
+        <v>7.445906678206182e-08</v>
       </c>
       <c r="J37" t="n">
-        <v>2.09619102678092</v>
+        <v>9.715010888229919</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
-        <v>1.98637033205473e-05</v>
+        <v>1.123611569879694e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>4.426397028874825e-06</v>
+        <v>7.772765775078202e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.7648734182948e-06</v>
+        <v>2.398282271378573e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>9.34916778645946e-07</v>
+        <v>5.350550897843821e-07</v>
       </c>
       <c r="F38" t="n">
-        <v>1.747636739883935e-06</v>
+        <v>8.988705511661134e-07</v>
       </c>
       <c r="G38" t="n">
-        <v>2.107306163570255e-06</v>
+        <v>1.173595690170144e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>8.672800171805678</v>
+        <v>26.21861967775059</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06981902083878934</v>
+        <v>2.858938716607252e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>2.168200042951419</v>
+        <v>6.554654919437647</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
-        <v>1.949917286861132e-05</v>
+        <v>9.271737689297937e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>1.063244429748948e-06</v>
+        <v>2.952877734450658e-07</v>
       </c>
       <c r="D39" t="n">
-        <v>3.054019433794263e-06</v>
+        <v>4.709674599329115e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>8.395327332728082e-07</v>
+        <v>4.078759949275751e-07</v>
       </c>
       <c r="F39" t="n">
-        <v>1.608074775716757e-06</v>
+        <v>8.477708441603265e-07</v>
       </c>
       <c r="G39" t="n">
-        <v>1.913362649184933e-06</v>
+        <v>9.65021274917149e-07</v>
       </c>
       <c r="H39" t="n">
-        <v>9.46749274244689</v>
+        <v>76.30026865669507</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05041950185527159</v>
+        <v>1.057646249857955e-15</v>
       </c>
       <c r="J39" t="n">
-        <v>2.366873185611722</v>
+        <v>19.07506716417377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
-        <v>1.568393851868086e-05</v>
+        <v>1.134572071504679e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>1.089947744917897e-05</v>
+        <v>-5.321100016168608e-07</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.207778591241238e-06</v>
+        <v>3.546747987290409e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>6.559205155549987e-07</v>
+        <v>5.458291555413424e-07</v>
       </c>
       <c r="F40" t="n">
-        <v>9.939350572736667e-07</v>
+        <v>9.924384499102699e-07</v>
       </c>
       <c r="G40" t="n">
-        <v>1.420441326640676e-06</v>
+        <v>1.162770425779164e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>36.80016995744013</v>
+        <v>6.687500208948979</v>
       </c>
       <c r="I40" t="n">
-        <v>1.980378758619209e-07</v>
+        <v>0.1533531189146272</v>
       </c>
       <c r="J40" t="n">
-        <v>9.200042489360031</v>
+        <v>1.671875052237245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
-        <v>1.690571948594543e-05</v>
+        <v>1.710263308225266e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>4.733055957006563e-06</v>
+        <v>4.432634585017957e-08</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.35615648559586e-06</v>
+        <v>1.783050220152658e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>7.945849989354883e-07</v>
+        <v>5.847462101027822e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>1.460880490157223e-06</v>
+        <v>1.001866961335103e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>1.726512016371171e-06</v>
+        <v>1.262677341115706e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>13.09042048815848</v>
+        <v>6.621650291378934</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01084233080799876</v>
+        <v>0.1572850034396942</v>
       </c>
       <c r="J41" t="n">
-        <v>3.27260512203962</v>
+        <v>1.655412572844734</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
-        <v>2.533503798965327e-05</v>
+        <v>1.750590889163406e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1.230143076266201e-06</v>
+        <v>1.065507763173935e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>1.705455233773554e-06</v>
+        <v>1.493881741417321e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>8.448316466746771e-07</v>
+        <v>5.294113816311622e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>1.580419770117981e-06</v>
+        <v>9.405330765757919e-07</v>
       </c>
       <c r="G42" t="n">
-        <v>1.867083537796621e-06</v>
+        <v>1.164188987219438e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>5.730449501676457</v>
+        <v>13.42390219839732</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2202031124357279</v>
+        <v>0.009379959039336061</v>
       </c>
       <c r="J42" t="n">
-        <v>1.432612375419114</v>
+        <v>3.355975549599329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
-        <v>2.556317677259932e-05</v>
+        <v>1.636208902411694e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>7.748782548129898e-06</v>
+        <v>1.404286740637652e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>-3.853816259657947e-06</v>
+        <v>8.07553766500111e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>7.595638538659731e-07</v>
+        <v>4.744840121226472e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>1.342158039402968e-06</v>
+        <v>8.202869048839917e-07</v>
       </c>
       <c r="G43" t="n">
-        <v>1.674773498196517e-06</v>
+        <v>1.045220684490186e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>18.2016769232502</v>
+        <v>3.87391639843621</v>
       </c>
       <c r="I43" t="n">
-        <v>0.001126972973402864</v>
+        <v>0.4233382476771266</v>
       </c>
       <c r="J43" t="n">
-        <v>4.550419230812551</v>
+        <v>0.9684790996090524</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
-        <v>2.481117919374958e-05</v>
+        <v>1.478899019514639e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>2.531128816511159e-06</v>
+        <v>1.032617629672679e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.095434862258997e-07</v>
+        <v>5.463979504161549e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>7.035671766816475e-07</v>
+        <v>4.198387599585925e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>1.303013877051194e-06</v>
+        <v>7.36103306860773e-07</v>
       </c>
       <c r="G44" t="n">
-        <v>1.572103361036681e-06</v>
+        <v>9.155105369960506e-07</v>
       </c>
       <c r="H44" t="n">
-        <v>3.960483695655604</v>
+        <v>7.086939999025449</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4113802154882132</v>
+        <v>0.1313645544549835</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9901209239139011</v>
+        <v>1.771734999756362</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
-        <v>2.238432508540996e-05</v>
+        <v>1.561740343122481e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>2.220572934864891e-06</v>
+        <v>1.025314948225695e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.156787094226046e-06</v>
+        <v>6.888566990196343e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>6.213727314554294e-07</v>
+        <v>4.371393696650803e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>1.151363078449907e-06</v>
+        <v>7.512540815346243e-07</v>
       </c>
       <c r="G45" t="n">
-        <v>1.387637074254622e-06</v>
+        <v>9.630254305357185e-07</v>
       </c>
       <c r="H45" t="n">
-        <v>3.919220797391719</v>
+        <v>4.241317070920493</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4170484982930142</v>
+        <v>0.3743311345277943</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9798051993479299</v>
+        <v>1.060329267730123</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
-        <v>2.298230328225498e-05</v>
+        <v>1.516175084933548e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>3.375355320306019e-06</v>
+        <v>9.952332834566354e-08</v>
       </c>
       <c r="D46" t="n">
-        <v>3.064504773466755e-07</v>
+        <v>6.743298791092623e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>6.27787482285383e-07</v>
+        <v>4.114024464504e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>1.184899543383833e-06</v>
+        <v>7.292293534489796e-07</v>
       </c>
       <c r="G46" t="n">
-        <v>1.445430973829369e-06</v>
+        <v>8.928925085497596e-07</v>
       </c>
       <c r="H46" t="n">
-        <v>1.963802908120343</v>
+        <v>3.201245876053314</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7424165985180282</v>
+        <v>0.5247297398636335</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4909507270300857</v>
+        <v>0.8003114690133286</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
-        <v>2.223068446639253e-05</v>
+        <v>1.019531776715427e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>5.514217767268345e-07</v>
+        <v>1.448042472395271e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.399124020895099e-07</v>
+        <v>-2.714288469186948e-09</v>
       </c>
       <c r="E47" t="n">
-        <v>5.949437584368364e-07</v>
+        <v>3.006013855888984e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>1.106776287473347e-06</v>
+        <v>5.174230462768608e-07</v>
       </c>
       <c r="G47" t="n">
-        <v>1.298034082059398e-06</v>
+        <v>6.60370193432277e-07</v>
       </c>
       <c r="H47" t="n">
-        <v>1.271133585952754</v>
+        <v>4.811958105566708</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8662537613940617</v>
+        <v>0.3071415322115951</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3177833964881885</v>
+        <v>1.202989526391677</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
-        <v>1.544380657622781e-05</v>
+        <v>1.356629258026172e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>2.661340131303604e-06</v>
+        <v>8.869872796057483e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.197504833451307e-07</v>
+        <v>1.711765828762081e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>4.451018566206278e-07</v>
+        <v>3.848300151479521e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>8.140865586949216e-07</v>
+        <v>6.813502957272965e-07</v>
       </c>
       <c r="G48" t="n">
-        <v>1.000909313645853e-06</v>
+        <v>8.51724534077332e-07</v>
       </c>
       <c r="H48" t="n">
-        <v>2.520666073478986</v>
+        <v>11.82323341593274</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6409390752934265</v>
+        <v>0.01871531453617234</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6301665183697466</v>
+        <v>2.955808353983186</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
-        <v>2.03321307132327e-05</v>
+        <v>2.044429235985378e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>9.554742214629831e-07</v>
+        <v>7.507909326902982e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>8.751955080790162e-07</v>
+        <v>1.241191813263553e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>5.636614685963466e-07</v>
+        <v>5.578594372493102e-07</v>
       </c>
       <c r="F49" t="n">
-        <v>1.071949154742307e-06</v>
+        <v>9.610383480895358e-07</v>
       </c>
       <c r="G49" t="n">
-        <v>1.239893335004147e-06</v>
+        <v>1.229696883971646e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>2.43135389217176</v>
+        <v>7.694634698115786</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6569686554204077</v>
+        <v>0.1034267215845891</v>
       </c>
       <c r="J49" t="n">
-        <v>0.60783847304294</v>
+        <v>1.923658674528947</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
-        <v>3.028117173227794e-05</v>
+        <v>2.963706162891428e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>1.29991686047012e-06</v>
+        <v>7.010875902083769e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>2.5483612704219e-06</v>
+        <v>4.881299575885796e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>8.086835990785193e-07</v>
+        <v>7.913804868397059e-07</v>
       </c>
       <c r="F50" t="n">
-        <v>1.524865843659285e-06</v>
+        <v>1.440457141596711e-06</v>
       </c>
       <c r="G50" t="n">
-        <v>1.857162737638462e-06</v>
+        <v>1.760779080485259e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>9.375517063558918</v>
+        <v>2.584275489769913</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05236890434162929</v>
+        <v>0.629611164265664</v>
       </c>
       <c r="J50" t="n">
-        <v>2.34387926588973</v>
+        <v>0.6460688724424781</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
-        <v>4.446611586523098e-05</v>
+        <v>4.075871733760341e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>4.663617357646259e-06</v>
+        <v>-7.930326054935655e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.221736741250433e-07</v>
+        <v>1.620712907221661e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>1.181510941854915e-06</v>
+        <v>1.036590121062254e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>2.117361152893045e-06</v>
+        <v>1.853998410454694e-06</v>
       </c>
       <c r="G51" t="n">
-        <v>2.611578025528195e-06</v>
+        <v>2.256803976707465e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>10.74044848366593</v>
+        <v>3.641079850156973</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02964121255230535</v>
+        <v>0.4567534201854364</v>
       </c>
       <c r="J51" t="n">
-        <v>2.685112120916481</v>
+        <v>0.9102699625392433</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
-        <v>6.127986874284483e-05</v>
+        <v>8.598387592427764e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>5.221550051185626e-07</v>
+        <v>5.078879541108064e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.633588229508679e-07</v>
+        <v>4.5101179141019e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>1.538347651530562e-06</v>
+        <v>2.240677942332022e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>2.841833906104994e-06</v>
+        <v>3.937846074183178e-06</v>
       </c>
       <c r="G52" t="n">
-        <v>3.380598753505734e-06</v>
+        <v>4.954719515478581e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>1.934544356970447</v>
+        <v>1.838663471045171</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7477965901708213</v>
+        <v>0.7654015625713003</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4836360892426119</v>
+        <v>0.4596658677612928</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001263625101017837</v>
+        <v>0.0001458136699369737</v>
       </c>
       <c r="C53" t="n">
-        <v>9.3050525049401e-06</v>
+        <v>4.073634994363487e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>4.518739087451084e-06</v>
+        <v>2.64888236122901e-07</v>
       </c>
       <c r="E53" t="n">
-        <v>3.253957639686898e-06</v>
+        <v>3.649287300757469e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>6.028517777789737e-06</v>
+        <v>6.489863977927081e-06</v>
       </c>
       <c r="G53" t="n">
-        <v>7.329540937229871e-06</v>
+        <v>7.884475046577802e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>3.003663784383376</v>
+        <v>2.341228105737915</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5572124620847326</v>
+        <v>0.6732732919018209</v>
       </c>
       <c r="J53" t="n">
-        <v>0.7509159460958439</v>
+        <v>0.5853070264344786</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002182256120124949</v>
+        <v>0.0004004202966473285</v>
       </c>
       <c r="C54" t="n">
-        <v>7.539503509813931e-06</v>
+        <v>2.070471399601734e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>-5.005789050058673e-06</v>
+        <v>2.443538030970588e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>5.401486340934383e-06</v>
+        <v>9.996187924286117e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>1.005524398699776e-05</v>
+        <v>1.791171966396759e-05</v>
       </c>
       <c r="G54" t="n">
-        <v>1.187716730694552e-05</v>
+        <v>2.231367648913919e-05</v>
       </c>
       <c r="H54" t="n">
-        <v>1.482354459144349</v>
+        <v>2.867065169953353</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8297624894798106</v>
+        <v>0.5803124320043999</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3705886147860873</v>
+        <v>0.7167662924883383</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0005926662647069509</v>
+        <v>0.0006483919947153341</v>
       </c>
       <c r="C55" t="n">
-        <v>6.623110186576814e-05</v>
+        <v>1.79666687948298e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.108243518005328e-05</v>
+        <v>4.002571772599871e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>1.467411438197301e-05</v>
+        <v>1.57047433827071e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>2.659148378996391e-05</v>
+        <v>2.830214395370352e-05</v>
       </c>
       <c r="G55" t="n">
-        <v>3.297811203392386e-05</v>
+        <v>3.483506324068599e-05</v>
       </c>
       <c r="H55" t="n">
-        <v>3.507482810576095</v>
+        <v>1.964720201230213</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4767414792422691</v>
+        <v>0.7422478991422807</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8768707026440237</v>
+        <v>0.4911800503075532</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0009582852285062902</v>
+        <v>0.0007147581219881063</v>
       </c>
       <c r="C56" t="n">
-        <v>6.614288676230426e-05</v>
+        <v>6.801656319182885e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>1.084363812386187e-06</v>
+        <v>3.960539602653845e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>2.306705929866229e-05</v>
+        <v>1.693056360937979e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>4.199793193352391e-05</v>
+        <v>3.045847028912626e-05</v>
       </c>
       <c r="G56" t="n">
-        <v>5.136181625454124e-05</v>
+        <v>3.735369621067795e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>1.847025773446128</v>
+        <v>2.179265476521274</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7638684092032855</v>
+        <v>0.7028270664904304</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4617564433615321</v>
+        <v>0.5448163691303184</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001063184592376803</v>
+        <v>0.0005766112586068361</v>
       </c>
       <c r="C57" t="n">
-        <v>4.620812176677565e-05</v>
+        <v>3.306627818844352e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>3.451367227433159e-06</v>
+        <v>3.666214428002079e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>2.504319733978428e-05</v>
+        <v>1.377422293639091e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>4.552602631585614e-05</v>
+        <v>2.486944553829461e-05</v>
       </c>
       <c r="G57" t="n">
-        <v>5.545799280630699e-05</v>
+        <v>3.06934192207412e-05</v>
       </c>
       <c r="H57" t="n">
-        <v>2.937182558242819</v>
+        <v>2.230747124333242</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5683921898038582</v>
+        <v>0.6934042336389692</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7342956395607049</v>
+        <v>0.5576867810833106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0008569941745159897</v>
+        <v>0.0002992652947220026</v>
       </c>
       <c r="C58" t="n">
-        <v>7.63834688608872e-05</v>
+        <v>6.779971332998054e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>6.603384922012874e-06</v>
+        <v>1.52972719745232e-05</v>
       </c>
       <c r="E58" t="n">
-        <v>2.032576548954502e-05</v>
+        <v>7.163675861506472e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>3.72892975152807e-05</v>
+        <v>1.297407014640141e-05</v>
       </c>
       <c r="G58" t="n">
-        <v>4.557217528828091e-05</v>
+        <v>1.592432781791915e-05</v>
       </c>
       <c r="H58" t="n">
-        <v>1.961120542604682</v>
+        <v>3.687594325979155</v>
       </c>
       <c r="I58" t="n">
-        <v>0.742909904041499</v>
+        <v>0.4499328297315606</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4902801356511704</v>
+        <v>0.9218985814947889</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0004415282268501069</v>
+        <v>0.0002292299922823062</v>
       </c>
       <c r="C59" t="n">
-        <v>3.590119993983074e-05</v>
+        <v>5.045167571150847e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.341941274824777e-05</v>
+        <v>1.559063861137321e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>1.052355483308679e-05</v>
+        <v>5.498349521899253e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>1.89365248058989e-05</v>
+        <v>1.002249060450616e-05</v>
       </c>
       <c r="G59" t="n">
-        <v>2.327415126281708e-05</v>
+        <v>1.217201874283764e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>2.646370901204703</v>
+        <v>2.63510500882384</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6186310861137357</v>
+        <v>0.6206171886130714</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6615927253011759</v>
+        <v>0.65877625220596</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003404732209370016</v>
+        <v>0.0002906100887307447</v>
       </c>
       <c r="C60" t="n">
-        <v>3.067234998590639e-05</v>
+        <v>4.437335593445271e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.164314448417211e-05</v>
+        <v>3.03244934780524e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>8.137744789422501e-06</v>
+        <v>6.872802745911544e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>1.459809786870374e-05</v>
+        <v>1.256831872135972e-05</v>
       </c>
       <c r="G60" t="n">
-        <v>1.793111395377242e-05</v>
+        <v>1.536724013781667e-05</v>
       </c>
       <c r="H60" t="n">
-        <v>2.570552636239884</v>
+        <v>3.934112999551471</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6320483566233878</v>
+        <v>0.4149961167933113</v>
       </c>
       <c r="J60" t="n">
-        <v>0.642638159059971</v>
+        <v>0.9835282498878677</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0004314057254518509</v>
+        <v>0.0001283819086729053</v>
       </c>
       <c r="C61" t="n">
-        <v>2.781639317432413e-05</v>
+        <v>7.804215092262003e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>6.500200061735728e-06</v>
+        <v>7.754965932278479e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>1.018191526763829e-05</v>
+        <v>3.08026517106216e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>1.83966431477892e-05</v>
+        <v>5.536009612950097e-06</v>
       </c>
       <c r="G61" t="n">
-        <v>2.266445303360317e-05</v>
+        <v>6.910118859343123e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>6.544680231804506</v>
+        <v>2.567123927921775</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1619968477507426</v>
+        <v>0.6326578810847463</v>
       </c>
       <c r="J61" t="n">
-        <v>1.636170057951126</v>
+        <v>0.6417809819804438</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001908849694768657</v>
+        <v>9.289642636719077e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.685675498452943e-05</v>
+        <v>3.146399057212757e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>2.575667455225795e-06</v>
+        <v>2.414509463542866e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>4.538964403118898e-06</v>
+        <v>2.186817330522822e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>8.334947074010196e-06</v>
+        <v>3.900672162081473e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>1.020579938901169e-05</v>
+        <v>4.79679174199762e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>1.293529965990562</v>
+        <v>0.556697212117643</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8624723091084914</v>
+        <v>0.9677519131648293</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3233824914976406</v>
+        <v>0.1391743030294108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
-        <v>0.000136927733355247</v>
+        <v>5.374788160494251e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>7.563007932011027e-06</v>
+        <v>2.296491377779604e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>4.453544038282651e-07</v>
+        <v>5.202138714186779e-07</v>
       </c>
       <c r="E63" t="n">
-        <v>3.199745047055465e-06</v>
+        <v>1.305302813375298e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>5.88492234119688e-06</v>
+        <v>2.277606698768503e-06</v>
       </c>
       <c r="G63" t="n">
-        <v>7.111534351387903e-06</v>
+        <v>2.88017803665977e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8510224380839937</v>
+        <v>3.645523395878472</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9314798513964999</v>
+        <v>0.4560987359476312</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2127556095209984</v>
+        <v>0.911380848969618</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
-        <v>7.904121074309059e-05</v>
+        <v>2.823920079154378e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>4.487759968765177e-06</v>
+        <v>-3.561148335442184e-08</v>
       </c>
       <c r="D64" t="n">
-        <v>6.254493358580468e-07</v>
+        <v>3.011814976149868e-06</v>
       </c>
       <c r="E64" t="n">
-        <v>1.897540378628586e-06</v>
+        <v>7.084124544612687e-07</v>
       </c>
       <c r="F64" t="n">
-        <v>3.493177975889106e-06</v>
+        <v>1.281391936065012e-06</v>
       </c>
       <c r="G64" t="n">
-        <v>4.267911380105603e-06</v>
+        <v>1.561729058064687e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>2.912394161714263</v>
+        <v>4.67137980048466</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5725914438024045</v>
+        <v>0.3227070363226763</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7280985404285658</v>
+        <v>1.167844950121165</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
-        <v>4.232526788090387e-05</v>
+        <v>2.167252186750793e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>2.761513527096439e-07</v>
+        <v>6.116204003908351e-07</v>
       </c>
       <c r="D65" t="n">
-        <v>1.785650830842206e-06</v>
+        <v>1.703987865041187e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>1.053645761973135e-06</v>
+        <v>6.844828244974497e-07</v>
       </c>
       <c r="F65" t="n">
-        <v>1.944281295258244e-06</v>
+        <v>1.193683262906725e-06</v>
       </c>
       <c r="G65" t="n">
-        <v>2.319462062923405e-06</v>
+        <v>1.488292009695015e-06</v>
       </c>
       <c r="H65" t="n">
-        <v>3.406005331700436</v>
+        <v>5.225574514372706</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4923135777807105</v>
+        <v>0.2649252179200608</v>
       </c>
       <c r="J65" t="n">
-        <v>0.851501332925109</v>
+        <v>1.306393628593177</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
-        <v>3.239164734309155e-05</v>
+        <v>2.188680757823856e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>2.644394779996312e-06</v>
+        <v>-7.923958962195194e-07</v>
       </c>
       <c r="D66" t="n">
-        <v>8.309404379582856e-07</v>
+        <v>4.499743419135908e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>9.995939387196987e-07</v>
+        <v>9.396841727795293e-07</v>
       </c>
       <c r="F66" t="n">
-        <v>1.86968189875216e-06</v>
+        <v>1.618851392673373e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>2.199119583646795e-06</v>
+        <v>1.974946236439565e-06</v>
       </c>
       <c r="H66" t="n">
-        <v>10.00146980993081</v>
+        <v>2.047178479473496</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04040293051777692</v>
+        <v>0.7270816814002786</v>
       </c>
       <c r="J66" t="n">
-        <v>2.500367452482701</v>
+        <v>0.511794619868374</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
-        <v>3.166647629919657e-05</v>
+        <v>2.620035401489747e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>3.067793188861959e-06</v>
+        <v>2.539029629585288e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>1.641594303140439e-07</v>
+        <v>3.957791604890026e-07</v>
       </c>
       <c r="E67" t="n">
-        <v>1.336347292542397e-06</v>
+        <v>1.19831632383071e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>2.530276994461061e-06</v>
+        <v>2.006752961766333e-06</v>
       </c>
       <c r="G67" t="n">
-        <v>2.974565157248305e-06</v>
+        <v>2.545459657004761e-06</v>
       </c>
       <c r="H67" t="n">
-        <v>2.259823347254613</v>
+        <v>3.051919282702766</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6880930779052297</v>
+        <v>0.5491747430057067</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5649558368136534</v>
+        <v>0.7629798206756916</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
-        <v>3.845552099368604e-05</v>
+        <v>3.344122277121999e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>1.888253666718415e-06</v>
+        <v>1.128803981814802e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.191310013946517e-06</v>
+        <v>9.220653073114172e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>1.712901267701423e-06</v>
+        <v>1.749411638575037e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>3.28416416612466e-06</v>
+        <v>3.095497849947033e-06</v>
       </c>
       <c r="G68" t="n">
-        <v>3.755647510514536e-06</v>
+        <v>3.831524091067066e-06</v>
       </c>
       <c r="H68" t="n">
-        <v>5.296308005855636</v>
+        <v>5.813220189532176</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2582227444654782</v>
+        <v>0.213538084550494</v>
       </c>
       <c r="J68" t="n">
-        <v>1.324077001463909</v>
+        <v>1.453305047383044</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
-        <v>5.328559449201074e-05</v>
+        <v>3.234275566213716e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>7.497730557594691e-06</v>
+        <v>-9.754612544911822e-07</v>
       </c>
       <c r="D69" t="n">
-        <v>1.201360400179837e-06</v>
+        <v>6.794846612613269e-06</v>
       </c>
       <c r="E69" t="n">
-        <v>2.6440978297885e-06</v>
+        <v>1.514399844085007e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>4.940921233992087e-06</v>
+        <v>2.699448149886846e-06</v>
       </c>
       <c r="G69" t="n">
-        <v>5.948832887177476e-06</v>
+        <v>3.28024070905814e-06</v>
       </c>
       <c r="H69" t="n">
-        <v>7.035729364762253</v>
+        <v>10.22832239413552</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1340120958506803</v>
+        <v>0.03675233166356799</v>
       </c>
       <c r="J69" t="n">
-        <v>1.758932341190563</v>
+        <v>2.557080598533879</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
-        <v>4.964858908616196e-05</v>
+        <v>6.911220240277263e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>1.233651498468245e-05</v>
+        <v>1.331038413244338e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.058252395270929e-06</v>
+        <v>-2.954938885583726e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>2.244877864411099e-06</v>
+        <v>3.15938251483729e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>4.026558813390949e-06</v>
+        <v>5.095848961023364e-06</v>
       </c>
       <c r="G70" t="n">
-        <v>4.948006797674173e-06</v>
+        <v>6.865226569707163e-06</v>
       </c>
       <c r="H70" t="n">
-        <v>13.86115887326582</v>
+        <v>6.801902336209769</v>
       </c>
       <c r="I70" t="n">
-        <v>0.007751620701364509</v>
+        <v>0.1467344958451198</v>
       </c>
       <c r="J70" t="n">
-        <v>3.465289718316455</v>
+        <v>1.700475584052442</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
-        <v>9.940627990980077e-05</v>
+        <v>0.0001053149775730746</v>
       </c>
       <c r="C71" t="n">
-        <v>1.602929101257071e-05</v>
+        <v>5.15411214630289e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>-2.533607133277773e-07</v>
+        <v>1.198464696603238e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>4.373561708754763e-06</v>
+        <v>4.571483455129748e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>8.487235012645583e-06</v>
+        <v>7.959659324969968e-06</v>
       </c>
       <c r="G71" t="n">
-        <v>9.964013009794398e-06</v>
+        <v>9.840079727518741e-06</v>
       </c>
       <c r="H71" t="n">
-        <v>1.523979329673049</v>
+        <v>6.52227208261738</v>
       </c>
       <c r="I71" t="n">
-        <v>0.8223855105539628</v>
+        <v>0.163392460300001</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3809948324182624</v>
+        <v>1.630568020654345</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0001507150311785344</v>
+        <v>0.0002559412446372343</v>
       </c>
       <c r="C72" t="n">
-        <v>4.097448914331243e-05</v>
+        <v>6.701350761834064e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.901017001361877e-05</v>
+        <v>9.850354899312733e-06</v>
       </c>
       <c r="E72" t="n">
-        <v>6.462703564555959e-06</v>
+        <v>6.681645823745863e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>1.159963960748111e-05</v>
+        <v>1.183220154405975e-05</v>
       </c>
       <c r="G72" t="n">
-        <v>1.4025660164913e-05</v>
+        <v>1.468195732194955e-05</v>
       </c>
       <c r="H72" t="n">
-        <v>13.72829025482064</v>
+        <v>4.235526438603661</v>
       </c>
       <c r="I72" t="n">
-        <v>0.008214689786201787</v>
+        <v>0.3750682042765706</v>
       </c>
       <c r="J72" t="n">
-        <v>3.432072563705159</v>
+        <v>1.058881609650915</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0003787155358604724</v>
+        <v>0.00064708924827766</v>
       </c>
       <c r="C73" t="n">
-        <v>3.100426914892326e-05</v>
+        <v>2.187993244297649e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.418549545332377e-05</v>
+        <v>3.80550831869062e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>9.776923078033988e-06</v>
+        <v>1.651345698519055e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>1.78226385823883e-05</v>
+        <v>2.935076608766547e-05</v>
       </c>
       <c r="G73" t="n">
-        <v>2.171331027398635e-05</v>
+        <v>3.659997439118207e-05</v>
       </c>
       <c r="H73" t="n">
-        <v>3.741468171831569</v>
+        <v>4.401726929926401</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4421233737218189</v>
+        <v>0.3543596721049838</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9353670429578923</v>
+        <v>1.1004317324816</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0009631529328086028</v>
+        <v>0.0006387892865982628</v>
       </c>
       <c r="C74" t="n">
-        <v>7.161861603506158e-05</v>
+        <v>2.993378959547841e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>4.969345430648345e-06</v>
+        <v>5.817200218334356e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>2.428970772223932e-05</v>
+        <v>1.635512237350928e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>4.455375197064938e-05</v>
+        <v>2.947945789787822e-05</v>
       </c>
       <c r="G74" t="n">
-        <v>5.430710200484899e-05</v>
+        <v>3.576948854689153e-05</v>
       </c>
       <c r="H74" t="n">
-        <v>4.724639296451419</v>
+        <v>2.189071218342677</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3167354041254685</v>
+        <v>0.7010305960314269</v>
       </c>
       <c r="J74" t="n">
-        <v>1.181159824112855</v>
+        <v>0.5472678045856693</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0009543939364211854</v>
+        <v>0.000348337397163955</v>
       </c>
       <c r="C75" t="n">
-        <v>3.815290058340837e-05</v>
+        <v>1.072922668922502e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>1.047642878151825e-05</v>
+        <v>1.149830367543916e-06</v>
       </c>
       <c r="E75" t="n">
-        <v>2.423415180959908e-05</v>
+        <v>9.895945164936488e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>4.450035474626393e-05</v>
+        <v>1.732103680297512e-05</v>
       </c>
       <c r="G75" t="n">
-        <v>5.299831332607031e-05</v>
+        <v>2.120870684272485e-05</v>
       </c>
       <c r="H75" t="n">
-        <v>3.608402209711319</v>
+        <v>2.526674179006038</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4615880660575966</v>
+        <v>0.6398658224517725</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9021005524278297</v>
+        <v>0.6316685447515096</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005168465668587397</v>
+        <v>0.0001821895223073151</v>
       </c>
       <c r="C76" t="n">
-        <v>3.506102773409765e-05</v>
+        <v>4.447847756695037e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>-2.327895436783991e-05</v>
+        <v>1.446781058437582e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>1.44516076635472e-05</v>
+        <v>5.12517643022432e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>2.682151631529815e-05</v>
+        <v>9.189743965323858e-06</v>
       </c>
       <c r="G76" t="n">
-        <v>3.152600740931777e-05</v>
+        <v>1.111083304264264e-05</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8173935468455986</v>
+        <v>4.511971472921203</v>
       </c>
       <c r="I76" t="n">
-        <v>0.936101123319494</v>
+        <v>0.3411303321426055</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2043483867113997</v>
+        <v>1.127992868230301</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0002736583543507506</v>
+        <v>9.162288040498924e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>3.214989331825371e-05</v>
+        <v>7.729657456861556e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.982503228312741e-05</v>
+        <v>1.934718656572415e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>7.599071387365537e-06</v>
+        <v>3.060335483323767e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>1.378486354760031e-05</v>
+        <v>5.21625698475061e-06</v>
       </c>
       <c r="G77" t="n">
-        <v>1.656863735255986e-05</v>
+        <v>6.713868241687062e-06</v>
       </c>
       <c r="H77" t="n">
-        <v>3.761167519811498</v>
+        <v>4.776352239343057</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4392920646067684</v>
+        <v>0.3110242607948821</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9402918799528744</v>
+        <v>1.194088059835764</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001359410796625001</v>
+        <v>9.488424176313315e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>2.061590235281636e-05</v>
+        <v>-1.198005230136242e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.46841934482479e-05</v>
+        <v>4.806887220520814e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>4.416175246555004e-06</v>
+        <v>3.616018659520721e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>8.187094661887408e-06</v>
+        <v>6.198739071790482e-06</v>
       </c>
       <c r="G78" t="n">
-        <v>9.932718339977941e-06</v>
+        <v>7.41614875094751e-06</v>
       </c>
       <c r="H78" t="n">
-        <v>1.542241717417136</v>
+        <v>1.956760815772268</v>
       </c>
       <c r="I78" t="n">
-        <v>0.8191334555326487</v>
+        <v>0.7437116594878209</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3855604293542841</v>
+        <v>0.4891902039430669</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0001380834907573007</v>
+        <v>6.68405947524277e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.461609996802784e-06</v>
+        <v>-6.507038519689781e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.049057170027874e-05</v>
+        <v>-6.291813216718965e-06</v>
       </c>
       <c r="E79" t="n">
-        <v>5.182751817387729e-06</v>
+        <v>3.325336914554065e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>9.678954798412222e-06</v>
+        <v>5.755905049794968e-06</v>
       </c>
       <c r="G79" t="n">
-        <v>1.093730310647946e-05</v>
+        <v>6.770871557871637e-06</v>
       </c>
       <c r="H79" t="n">
-        <v>3.484473477295031</v>
+        <v>17.22739252462956</v>
       </c>
       <c r="I79" t="n">
-        <v>0.48024311040454</v>
+        <v>0.001745860910369952</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8711183693237577</v>
+        <v>4.306848131157389</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
-        <v>9.17143035505607e-05</v>
+        <v>5.943658622827903e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>1.791386598846149e-05</v>
+        <v>-7.781235785121678e-07</v>
       </c>
       <c r="D80" t="n">
-        <v>-3.1261074465585e-05</v>
+        <v>4.43166272827723e-07</v>
       </c>
       <c r="E80" t="n">
-        <v>4.59571121798428e-06</v>
+        <v>2.54307004599318e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>8.046249027943207e-06</v>
+        <v>4.273223666638181e-06</v>
       </c>
       <c r="G80" t="n">
-        <v>9.476623460393491e-06</v>
+        <v>5.206613537851392e-06</v>
       </c>
       <c r="H80" t="n">
-        <v>11.14683712886847</v>
+        <v>7.485036360804791</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02496240120910748</v>
+        <v>0.112370939078402</v>
       </c>
       <c r="J80" t="n">
-        <v>2.786709282217117</v>
+        <v>1.871259090201198</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
-        <v>8.779234615064503e-05</v>
+        <v>3.822632645391872e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.85395988551459e-06</v>
+        <v>4.645278613465148e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>-4.163558091454053e-06</v>
+        <v>2.086128656697539e-06</v>
       </c>
       <c r="E81" t="n">
-        <v>3.669835145920395e-06</v>
+        <v>1.702247362566023e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>6.990641039870169e-06</v>
+        <v>2.854904928931727e-06</v>
       </c>
       <c r="G81" t="n">
-        <v>7.76374894046998e-06</v>
+        <v>3.656554315589344e-06</v>
       </c>
       <c r="H81" t="n">
-        <v>9.098888188007221</v>
+        <v>3.776051600335609</v>
       </c>
       <c r="I81" t="n">
-        <v>0.05867471852147502</v>
+        <v>0.4371614743563439</v>
       </c>
       <c r="J81" t="n">
-        <v>2.274722047001805</v>
+        <v>0.9440129000839022</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
-        <v>5.303858575673652e-05</v>
+        <v>4.347846010805113e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>1.106987898476724e-05</v>
+        <v>1.285881053651503e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>-3.246752783597653e-07</v>
+        <v>3.014906500686657e-07</v>
       </c>
       <c r="E82" t="n">
-        <v>2.334484100456795e-06</v>
+        <v>1.601525870898284e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>4.373657267033387e-06</v>
+        <v>2.706700245744112e-06</v>
       </c>
       <c r="G82" t="n">
-        <v>5.14274075134307e-06</v>
+        <v>3.391776462309e-06</v>
       </c>
       <c r="H82" t="n">
-        <v>6.596587335992518</v>
+        <v>2.939028969776715</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1588054286265927</v>
+        <v>0.5680800606231735</v>
       </c>
       <c r="J82" t="n">
-        <v>1.649146833998129</v>
+        <v>0.7347572424441788</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
-        <v>6.439578297483207e-05</v>
+        <v>9.333485546735955e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>2.591171323685744e-06</v>
+        <v>1.258112064539418e-07</v>
       </c>
       <c r="D83" t="n">
-        <v>5.839240999026151e-07</v>
+        <v>3.386802154803868e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>2.312557739975019e-06</v>
+        <v>2.646125995689087e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>4.371381800146806e-06</v>
+        <v>4.572415371382564e-06</v>
       </c>
       <c r="G83" t="n">
-        <v>5.114160276792703e-06</v>
+        <v>5.720338185140718e-06</v>
       </c>
       <c r="H83" t="n">
-        <v>5.369761431513642</v>
+        <v>4.591800705433479</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2514169504549941</v>
+        <v>0.3318006394810812</v>
       </c>
       <c r="J83" t="n">
-        <v>1.342440357878411</v>
+        <v>1.14795017635837</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001383168827152918</v>
+        <v>6.305579840389958e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.953737278044643e-07</v>
+        <v>2.493634593913237e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>4.73421018113351e-06</v>
+        <v>-1.163866588031981e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>3.855814130553119e-06</v>
+        <v>1.696773810959555e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>7.206948285736405e-06</v>
+        <v>2.954614833265724e-06</v>
       </c>
       <c r="G84" t="n">
-        <v>8.527322137417119e-06</v>
+        <v>3.677707141648294e-06</v>
       </c>
       <c r="H84" t="n">
-        <v>5.339135702128312</v>
+        <v>2.793856771244997</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2542355835105234</v>
+        <v>0.5928936091549388</v>
       </c>
       <c r="J84" t="n">
-        <v>1.334783925532078</v>
+        <v>0.6984641928112493</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
-        <v>9.275131165650114e-05</v>
+        <v>2.822038819035869e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>5.684882190848647e-06</v>
+        <v>1.549207968840504e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>-4.335323975377645e-06</v>
+        <v>1.311416371372691e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>2.460002785432351e-06</v>
+        <v>8.245084578040502e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>4.557179132752708e-06</v>
+        <v>1.42257768321399e-06</v>
       </c>
       <c r="G85" t="n">
-        <v>5.423008519125604e-06</v>
+        <v>1.76112615737128e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>1.614205851142435</v>
+        <v>3.373837617448239</v>
       </c>
       <c r="I85" t="n">
-        <v>0.806236660424469</v>
+        <v>0.4973189561369417</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4035514627856088</v>
+        <v>0.8434594043620597</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
-        <v>4.22989296542532e-05</v>
+        <v>2.437189392206575e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>8.531047569569205e-07</v>
+        <v>-9.251270118069612e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>4.197254986025167e-06</v>
+        <v>-2.272127100847311e-07</v>
       </c>
       <c r="E86" t="n">
-        <v>1.203834838586039e-06</v>
+        <v>7.013401470071529e-07</v>
       </c>
       <c r="F86" t="n">
-        <v>2.345727518128923e-06</v>
+        <v>1.222814322328223e-06</v>
       </c>
       <c r="G86" t="n">
-        <v>2.695010231168824e-06</v>
+        <v>1.456281809021992e-06</v>
       </c>
       <c r="H86" t="n">
-        <v>3.12193097570369</v>
+        <v>4.508921626189467</v>
       </c>
       <c r="I86" t="n">
-        <v>0.5376318983693318</v>
+        <v>0.3414909162197861</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7804827439259225</v>
+        <v>1.127230406547367</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
-        <v>3.60341091931663e-05</v>
+        <v>2.232557054880997e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>4.237326033399504e-07</v>
+        <v>6.282580097076046e-07</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.259034790021951e-06</v>
+        <v>3.02446961890487e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>1.02459730230661e-06</v>
+        <v>5.825150996599339e-07</v>
       </c>
       <c r="F87" t="n">
-        <v>1.876024543440688e-06</v>
+        <v>1.051114634347983e-06</v>
       </c>
       <c r="G87" t="n">
-        <v>2.160337933345666e-06</v>
+        <v>1.27025836795474e-06</v>
       </c>
       <c r="H87" t="n">
-        <v>5.491711639801631</v>
+        <v>0.4271140143087147</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2404589943344836</v>
+        <v>0.9801974141367351</v>
       </c>
       <c r="J87" t="n">
-        <v>1.372927909950408</v>
+        <v>0.1067785035771787</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
-        <v>3.336456983945779e-05</v>
+        <v>2.864407127555294e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.777444312908223e-06</v>
+        <v>2.695831472481402e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>2.444446027643902e-06</v>
+        <v>-3.352145054341901e-07</v>
       </c>
       <c r="E88" t="n">
-        <v>8.601439996650482e-07</v>
+        <v>7.594049159989366e-07</v>
       </c>
       <c r="F88" t="n">
-        <v>1.6145874376933e-06</v>
+        <v>1.319797202309704e-06</v>
       </c>
       <c r="G88" t="n">
-        <v>1.898496877408583e-06</v>
+        <v>1.649660829421132e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>1.743866509007662</v>
+        <v>2.428201692208003</v>
       </c>
       <c r="I88" t="n">
-        <v>0.7827346481109301</v>
+        <v>0.6575368547984269</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4359666272519154</v>
+        <v>0.6070504230520007</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
-        <v>4.231713469963901e-05</v>
+        <v>5.179120576622905e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>2.052968482726084e-06</v>
+        <v>3.402503037601678e-07</v>
       </c>
       <c r="D89" t="n">
-        <v>1.280445560107386e-06</v>
+        <v>2.790330286907665e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>1.103907373569875e-06</v>
+        <v>1.306001607467325e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>2.12697242207936e-06</v>
+        <v>2.319138327839368e-06</v>
       </c>
       <c r="G89" t="n">
-        <v>2.499369917262284e-06</v>
+        <v>2.887539095763168e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>4.94596542994675</v>
+        <v>6.476618977800064</v>
       </c>
       <c r="I89" t="n">
-        <v>0.292886851121331</v>
+        <v>0.1662695512913192</v>
       </c>
       <c r="J89" t="n">
-        <v>1.236491357486688</v>
+        <v>1.619154744450016</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
-        <v>7.729652557503317e-05</v>
+        <v>0.0001200743724731021</v>
       </c>
       <c r="C90" t="n">
-        <v>2.583189751386992e-06</v>
+        <v>3.777774576074695e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.117704789857467e-07</v>
+        <v>5.509832109500205e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>1.929061907697024e-06</v>
+        <v>2.907293086394077e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>3.521285262915321e-06</v>
+        <v>5.20004610291477e-06</v>
       </c>
       <c r="G90" t="n">
-        <v>4.299330924691167e-06</v>
+        <v>6.403880294094421e-06</v>
       </c>
       <c r="H90" t="n">
-        <v>7.866526757876131</v>
+        <v>2.100141950734479</v>
       </c>
       <c r="I90" t="n">
-        <v>0.09659168028549461</v>
+        <v>0.7173463069136916</v>
       </c>
       <c r="J90" t="n">
-        <v>1.966631689469033</v>
+        <v>0.5250354876836199</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000177224234133727</v>
+        <v>0.0001350022072627554</v>
       </c>
       <c r="C91" t="n">
-        <v>1.036665638859966e-05</v>
+        <v>-1.308756154498982e-07</v>
       </c>
       <c r="D91" t="n">
-        <v>9.315885223830031e-07</v>
+        <v>3.875297025189518e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>4.26144327401046e-06</v>
+        <v>3.250615806927412e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>7.802635978466231e-06</v>
+        <v>5.755141972091078e-06</v>
       </c>
       <c r="G91" t="n">
-        <v>9.462768764393698e-06</v>
+        <v>7.0727138367653e-06</v>
       </c>
       <c r="H91" t="n">
-        <v>2.887634864177479</v>
+        <v>1.508524638681713</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5768020758994948</v>
+        <v>0.825130369375237</v>
       </c>
       <c r="J91" t="n">
-        <v>0.7219087160443698</v>
+        <v>0.3771311596704282</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001997698202726203</v>
+        <v>0.0001576588006929124</v>
       </c>
       <c r="C92" t="n">
-        <v>2.030627270813734e-06</v>
+        <v>4.981867671208657e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>1.609805445857218e-06</v>
+        <v>1.069322391808255e-05</v>
       </c>
       <c r="E92" t="n">
-        <v>4.776893735677144e-06</v>
+        <v>3.780110306164908e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>8.746930356389066e-06</v>
+        <v>6.834587807711737e-06</v>
       </c>
       <c r="G92" t="n">
-        <v>1.050629818054993e-05</v>
+        <v>8.497820947480526e-06</v>
       </c>
       <c r="H92" t="n">
-        <v>1.754504529905265</v>
+        <v>5.57868563734632</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7807946323734448</v>
+        <v>0.2328990424826987</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4386261324763163</v>
+        <v>1.39467140933658</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0002343713563447942</v>
+        <v>0.0001635376255191664</v>
       </c>
       <c r="C93" t="n">
-        <v>1.746905619965468e-05</v>
+        <v>8.153056631860959e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>-8.057443582280398e-07</v>
+        <v>3.240316247999958e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>5.590955107644493e-06</v>
+        <v>4.067935996324168e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>1.010249289750832e-05</v>
+        <v>7.207060076228103e-06</v>
       </c>
       <c r="G93" t="n">
-        <v>1.255147376453332e-05</v>
+        <v>8.93217629241462e-06</v>
       </c>
       <c r="H93" t="n">
-        <v>5.911964331774691</v>
+        <v>1.426629523009124</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2058200037705596</v>
+        <v>0.839553723096444</v>
       </c>
       <c r="J93" t="n">
-        <v>1.477991082943673</v>
+        <v>0.356657380752281</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002426459409043006</v>
+        <v>0.0001458598430857729</v>
       </c>
       <c r="C94" t="n">
-        <v>1.29133660024751e-05</v>
+        <v>4.801514524861949e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.11726971632506e-06</v>
+        <v>-2.306113576527999e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>5.972196243685393e-06</v>
+        <v>4.262527292678648e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>1.10789448092424e-05</v>
+        <v>7.270019576024499e-06</v>
       </c>
       <c r="G94" t="n">
-        <v>1.327926436774476e-05</v>
+        <v>9.140837868127385e-06</v>
       </c>
       <c r="H94" t="n">
-        <v>1.152990334340835</v>
+        <v>1.731305881650961</v>
       </c>
       <c r="I94" t="n">
-        <v>0.8857761322432415</v>
+        <v>0.7850233262430376</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2882475835852089</v>
+        <v>0.4328264704127402</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0002163150981776299</v>
+        <v>0.0001279287985448936</v>
       </c>
       <c r="C95" t="n">
-        <v>1.093089072156625e-05</v>
+        <v>3.220111999595768e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.627520555618126e-06</v>
+        <v>9.154820064514248e-06</v>
       </c>
       <c r="E95" t="n">
-        <v>6.191238263900827e-06</v>
+        <v>3.735613393881529e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>1.157947201292809e-05</v>
+        <v>6.536661218835728e-06</v>
       </c>
       <c r="G95" t="n">
-        <v>1.375784547062896e-05</v>
+        <v>8.066873317498144e-06</v>
       </c>
       <c r="H95" t="n">
-        <v>1.088532506627407</v>
+        <v>1.900839364432998</v>
       </c>
       <c r="I95" t="n">
-        <v>0.8960873582420527</v>
+        <v>0.7539908011248935</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2721331266568517</v>
+        <v>0.4752098411082495</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001882858360136624</v>
+        <v>9.621538420290095e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>8.219361664164935e-06</v>
+        <v>7.01786742116596e-07</v>
       </c>
       <c r="D96" t="n">
-        <v>5.235010120693915e-06</v>
+        <v>3.927338618942461e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>5.421715361919358e-06</v>
+        <v>2.771978065545607e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>1.014414568898151e-05</v>
+        <v>4.792300905854857e-06</v>
       </c>
       <c r="G96" t="n">
-        <v>1.203172709047485e-05</v>
+        <v>5.953090904638837e-06</v>
       </c>
       <c r="H96" t="n">
-        <v>2.580665366164072</v>
+        <v>0.9699626044534641</v>
       </c>
       <c r="I96" t="n">
-        <v>0.6302519621614228</v>
+        <v>0.9143159205403296</v>
       </c>
       <c r="J96" t="n">
-        <v>0.645166341541018</v>
+        <v>0.242490651113366</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001426952023311678</v>
+        <v>8.791764924378772e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>2.259723850697121e-06</v>
+        <v>1.822089240577165e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>4.264987122166639e-06</v>
+        <v>3.434945903023356e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>4.036771405697978e-06</v>
+        <v>2.443019658232354e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>7.567485654115529e-06</v>
+        <v>4.300491828713738e-06</v>
       </c>
       <c r="G97" t="n">
-        <v>8.894275213332514e-06</v>
+        <v>5.292122650506723e-06</v>
       </c>
       <c r="H97" t="n">
-        <v>1.653223923142409</v>
+        <v>1.720216996728276</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7991959671470676</v>
+        <v>0.787041988103837</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4133059807856022</v>
+        <v>0.430054249182069</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0001322098791787746</v>
+        <v>8.270425588248438e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>6.791906214081785e-06</v>
+        <v>5.290839836978172e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>-3.189540932968922e-06</v>
+        <v>4.507324364806393e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>3.611974260118438e-06</v>
+        <v>2.109453008293671e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>6.677065060609443e-06</v>
+        <v>3.782843036306735e-06</v>
       </c>
       <c r="G98" t="n">
-        <v>7.851015321537714e-06</v>
+        <v>4.714150437732533e-06</v>
       </c>
       <c r="H98" t="n">
-        <v>1.149114448268166</v>
+        <v>4.016331603535757</v>
       </c>
       <c r="I98" t="n">
-        <v>0.886403407394596</v>
+        <v>0.4038001195945239</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2872786120670416</v>
+        <v>1.004082900883939</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001241398344615859</v>
+        <v>8.347065135287189e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1.151265896318829e-05</v>
+        <v>4.681513745404323e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.036869195132474e-06</v>
+        <v>-3.29491320217058e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>3.127921760483665e-06</v>
+        <v>2.027135351496373e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>5.745047452176372e-06</v>
+        <v>3.515761910390672e-06</v>
       </c>
       <c r="G99" t="n">
-        <v>7.019514721725728e-06</v>
+        <v>4.420356680103231e-06</v>
       </c>
       <c r="H99" t="n">
-        <v>2.321455880267604</v>
+        <v>1.0330114629822</v>
       </c>
       <c r="I99" t="n">
-        <v>0.6768654529725268</v>
+        <v>0.904749739981206</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5803639700669011</v>
+        <v>0.25825286574555</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0001219946641365947</v>
+        <v>8.116038279066642e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>7.486864262000266e-06</v>
+        <v>5.365042775688123e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>-3.12873723408151e-06</v>
+        <v>5.62273239300278e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>2.929544816256031e-06</v>
+        <v>1.885754330586899e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>5.415110670009975e-06</v>
+        <v>3.449865363497101e-06</v>
       </c>
       <c r="G100" t="n">
-        <v>6.54526920604946e-06</v>
+        <v>4.254219115223484e-06</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9593673718028745</v>
+        <v>3.680736533550644</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9158933541281494</v>
+        <v>0.4509338827764638</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2398418429507186</v>
+        <v>0.920184133387661</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0001205960902939499</v>
+        <v>8.186415338145527e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.450076353631931e-05</v>
+        <v>3.016886771453021e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.533499546886862e-06</v>
+        <v>2.453280427038834e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>2.790534274684394e-06</v>
+        <v>1.842315544785584e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>5.053641963111784e-06</v>
+        <v>3.319494678381608e-06</v>
       </c>
       <c r="G101" t="n">
-        <v>6.279799532415777e-06</v>
+        <v>4.127676376605422e-06</v>
       </c>
       <c r="H101" t="n">
-        <v>2.368051612407325</v>
+        <v>2.818926588081458</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6684083884040615</v>
+        <v>0.5885700835614851</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5920129031018313</v>
+        <v>0.7047316470203644</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001210103025090819</v>
+        <v>9.572514903772861e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>6.606776348643247e-06</v>
+        <v>3.234326853044321e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>1.206338831891162e-06</v>
+        <v>6.184511267962896e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>2.712256359028854e-06</v>
+        <v>2.116395033237747e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>4.929201810524389e-06</v>
+        <v>3.870752308398771e-06</v>
       </c>
       <c r="G102" t="n">
-        <v>6.096701266124276e-06</v>
+        <v>4.777869572180102e-06</v>
       </c>
       <c r="H102" t="n">
-        <v>2.554852212484376</v>
+        <v>2.77813713215093</v>
       </c>
       <c r="I102" t="n">
-        <v>0.6348413195845728</v>
+        <v>0.5956124962787837</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6387130531210939</v>
+        <v>0.6945342830377326</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001425781764991578</v>
+        <v>0.0001283202703444668</v>
       </c>
       <c r="C103" t="n">
-        <v>7.360551022909183e-06</v>
+        <v>7.234905848790881e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>4.250594630709819e-06</v>
+        <v>8.322318210964908e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>3.149739288300751e-06</v>
+        <v>2.81602566577747e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>5.724540165188345e-06</v>
+        <v>5.203297100873526e-06</v>
       </c>
       <c r="G103" t="n">
-        <v>7.074833802286588e-06</v>
+        <v>6.392450635915255e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>2.549048962817164</v>
+        <v>2.193666664354305</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6358748765289379</v>
+        <v>0.7001889424406612</v>
       </c>
       <c r="J103" t="n">
-        <v>0.637262240704291</v>
+        <v>0.5484166660885763</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0001901936751659223</v>
+        <v>0.0002104222491540148</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8835878733793e-05</v>
+        <v>7.253480321634212e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>-4.968366056196907e-07</v>
+        <v>1.383493570615612e-05</v>
       </c>
       <c r="E104" t="n">
-        <v>4.178940872554646e-06</v>
+        <v>4.538234782585476e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>7.500359947002396e-06</v>
+        <v>8.387282271945424e-06</v>
       </c>
       <c r="G104" t="n">
-        <v>9.3821172158392e-06</v>
+        <v>1.026366116487613e-05</v>
       </c>
       <c r="H104" t="n">
-        <v>1.547001598061747</v>
+        <v>2.31864909466214</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8182843773196528</v>
+        <v>0.6773757864247576</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3867503995154367</v>
+        <v>0.5796622736655349</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003112052822212022</v>
+        <v>0.0003220486683357956</v>
       </c>
       <c r="C105" t="n">
-        <v>2.365641734470805e-05</v>
+        <v>9.708612293396197e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>1.231826043120599e-06</v>
+        <v>1.258656476342876e-05</v>
       </c>
       <c r="E105" t="n">
-        <v>6.730667643760848e-06</v>
+        <v>7.032358157129405e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>1.203314649290371e-05</v>
+        <v>1.285202378244925e-05</v>
       </c>
       <c r="G105" t="n">
-        <v>1.505265411647408e-05</v>
+        <v>1.576131702373334e-05</v>
       </c>
       <c r="H105" t="n">
-        <v>2.725042420772864</v>
+        <v>1.955954064249875</v>
       </c>
       <c r="I105" t="n">
-        <v>0.60483967740144</v>
+        <v>0.7438600172880114</v>
       </c>
       <c r="J105" t="n">
-        <v>0.681260605193216</v>
+        <v>0.4889885160624687</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004760324603332221</v>
+        <v>0.0004254010167138297</v>
       </c>
       <c r="C106" t="n">
-        <v>3.047960401427385e-05</v>
+        <v>1.904593369801111e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.80904664215053e-06</v>
+        <v>2.125256213713559e-05</v>
       </c>
       <c r="E106" t="n">
-        <v>1.039853321623057e-05</v>
+        <v>9.193861452879691e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>1.865009487830198e-05</v>
+        <v>1.694714603074031e-05</v>
       </c>
       <c r="G106" t="n">
-        <v>2.316622961282612e-05</v>
+        <v>2.079004235666546e-05</v>
       </c>
       <c r="H106" t="n">
-        <v>1.699262501076539</v>
+        <v>2.475402673766547</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7908515874143457</v>
+        <v>0.6490456752924227</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4248156252691346</v>
+        <v>0.6188506684416367</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
-        <v>0.000630077284700765</v>
+        <v>0.0005666451978522166</v>
       </c>
       <c r="C107" t="n">
-        <v>5.107970643454123e-05</v>
+        <v>7.952822413935924e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>-3.096166599555724e-06</v>
+        <v>2.266844529981665e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>1.364403513087675e-05</v>
+        <v>1.229521080157715e-05</v>
       </c>
       <c r="F107" t="n">
-        <v>2.445404984743791e-05</v>
+        <v>2.253179571892041e-05</v>
       </c>
       <c r="G107" t="n">
-        <v>3.056033466775588e-05</v>
+        <v>2.730613282244675e-05</v>
       </c>
       <c r="H107" t="n">
-        <v>1.9909432247923</v>
+        <v>0.9756578135140904</v>
       </c>
       <c r="I107" t="n">
-        <v>0.7374247773375127</v>
+        <v>0.9134643232132363</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4977358061980751</v>
+        <v>0.2439144533785226</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0008384969194547299</v>
+        <v>0.0007058018680730735</v>
       </c>
       <c r="C108" t="n">
-        <v>3.621813066114209e-05</v>
+        <v>2.84310781927133e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>-2.481839660154047e-06</v>
+        <v>3.996218060427551e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>1.821497936736841e-05</v>
+        <v>1.510785808988403e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>3.269681969123566e-05</v>
+        <v>2.791615840337616e-05</v>
       </c>
       <c r="G108" t="n">
-        <v>4.015211356054045e-05</v>
+        <v>3.422830091502162e-05</v>
       </c>
       <c r="H108" t="n">
-        <v>1.116851322105911</v>
+        <v>2.424823340450291</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8915894225389025</v>
+        <v>0.6581459944629116</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2792128305264778</v>
+        <v>0.6062058351125728</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001044370188735925</v>
+        <v>0.0007632444899812367</v>
       </c>
       <c r="C109" t="n">
-        <v>7.953906586386633e-05</v>
+        <v>4.837001216678331e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>2.647328485477687e-06</v>
+        <v>3.463472074427239e-05</v>
       </c>
       <c r="E109" t="n">
-        <v>2.242258759260936e-05</v>
+        <v>1.640545572217535e-05</v>
       </c>
       <c r="F109" t="n">
-        <v>4.009530028482829e-05</v>
+        <v>3.017384198694739e-05</v>
       </c>
       <c r="G109" t="n">
-        <v>5.021473482292907e-05</v>
+        <v>3.727888420077714e-05</v>
       </c>
       <c r="H109" t="n">
-        <v>2.364668563793316</v>
+        <v>1.834847520984072</v>
       </c>
       <c r="I109" t="n">
-        <v>0.6690214166407817</v>
+        <v>0.7661009979136666</v>
       </c>
       <c r="J109" t="n">
-        <v>0.591167140948329</v>
+        <v>0.4587118802460181</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001129330345374686</v>
+        <v>0.0009493180187277939</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0001064775464425432</v>
+        <v>4.556130062972723e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>-9.112175518842004e-07</v>
+        <v>5.283571011267395e-05</v>
       </c>
       <c r="E110" t="n">
-        <v>2.431463334135472e-05</v>
+        <v>2.025773734732967e-05</v>
       </c>
       <c r="F110" t="n">
-        <v>4.367147077335801e-05</v>
+        <v>3.756963240436883e-05</v>
       </c>
       <c r="G110" t="n">
-        <v>5.477316668460157e-05</v>
+        <v>4.601196932033953e-05</v>
       </c>
       <c r="H110" t="n">
-        <v>1.176886229789937</v>
+        <v>2.126476904426604</v>
       </c>
       <c r="I110" t="n">
-        <v>0.8818892908888143</v>
+        <v>0.7125097807038088</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2942215574474843</v>
+        <v>0.531619226106651</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001408721165359353</v>
+        <v>0.00116664734932758</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0001209088205736031</v>
+        <v>3.007884978285e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>-7.347928702529155e-06</v>
+        <v>5.336802548895907e-05</v>
       </c>
       <c r="E111" t="n">
-        <v>3.017300217084615e-05</v>
+        <v>2.492432613821252e-05</v>
       </c>
       <c r="F111" t="n">
-        <v>5.388579003007386e-05</v>
+        <v>4.59849469119766e-05</v>
       </c>
       <c r="G111" t="n">
-        <v>6.762269534811574e-05</v>
+        <v>5.60175594513543e-05</v>
       </c>
       <c r="H111" t="n">
-        <v>1.532905757459386</v>
+        <v>1.841812097895324</v>
       </c>
       <c r="I111" t="n">
-        <v>0.8207970766140172</v>
+        <v>0.7648243543122601</v>
       </c>
       <c r="J111" t="n">
-        <v>0.3832264393648465</v>
+        <v>0.4604530244738311</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
-        <v>0.00172802823442015</v>
+        <v>0.001179365448335933</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0001029013126196502</v>
+        <v>3.438879844183446e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>-9.577522567837289e-06</v>
+        <v>6.555134942943142e-05</v>
       </c>
       <c r="E112" t="n">
-        <v>3.702886873408446e-05</v>
+        <v>2.526783017109706e-05</v>
       </c>
       <c r="F112" t="n">
-        <v>6.613629513397876e-05</v>
+        <v>4.666668957116494e-05</v>
       </c>
       <c r="G112" t="n">
-        <v>8.226657008396971e-05</v>
+        <v>5.699175707701222e-05</v>
       </c>
       <c r="H112" t="n">
-        <v>1.685269108689326</v>
+        <v>2.410850708317105</v>
       </c>
       <c r="I112" t="n">
-        <v>0.793391738456397</v>
+        <v>0.6606672568254062</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4213172771723314</v>
+        <v>0.6027126770792762</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001747622327910624</v>
+        <v>0.001323736719372463</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0001096503837934124</v>
+        <v>1.031289048514543e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>3.64166893143409e-06</v>
+        <v>6.948005558696214e-05</v>
       </c>
       <c r="E113" t="n">
-        <v>3.75549396914522e-05</v>
+        <v>2.832863777259379e-05</v>
       </c>
       <c r="F113" t="n">
-        <v>6.717687153692695e-05</v>
+        <v>5.211996307737323e-05</v>
       </c>
       <c r="G113" t="n">
-        <v>8.371057391621658e-05</v>
+        <v>6.339566354362917e-05</v>
       </c>
       <c r="H113" t="n">
-        <v>2.536468742784405</v>
+        <v>1.492983796809129</v>
       </c>
       <c r="I113" t="n">
-        <v>0.6381176217566872</v>
+        <v>0.8278835687706374</v>
       </c>
       <c r="J113" t="n">
-        <v>0.6341171856961012</v>
+        <v>0.3732459492022822</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001960273931931118</v>
+        <v>0.001353048945555235</v>
       </c>
       <c r="C114" t="n">
-        <v>7.717043097030848e-05</v>
+        <v>2.338527758043206e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>8.661885176737983e-06</v>
+        <v>5.53699134216391e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>4.207285623854011e-05</v>
+        <v>2.892491578799672e-05</v>
       </c>
       <c r="F114" t="n">
-        <v>7.506776992431882e-05</v>
+        <v>5.324141134579116e-05</v>
       </c>
       <c r="G114" t="n">
-        <v>9.314856075167763e-05</v>
+        <v>6.472091076494168e-05</v>
       </c>
       <c r="H114" t="n">
-        <v>1.971200783055512</v>
+        <v>1.546552832505532</v>
       </c>
       <c r="I114" t="n">
-        <v>0.741056017871573</v>
+        <v>0.81836445452076</v>
       </c>
       <c r="J114" t="n">
-        <v>0.492800195763878</v>
+        <v>0.386638208126383</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
-        <v>0.002002077965636846</v>
+        <v>0.001343632386193721</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0001014381253674067</v>
+        <v>1.56684520517059e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.586333177320967e-05</v>
+        <v>7.690744113418059e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>4.291353554288769e-05</v>
+        <v>2.874933065737984e-05</v>
       </c>
       <c r="F115" t="n">
-        <v>7.660934554013954e-05</v>
+        <v>5.302978668194479e-05</v>
       </c>
       <c r="G115" t="n">
-        <v>9.498816869272882e-05</v>
+        <v>6.456312766411287e-05</v>
       </c>
       <c r="H115" t="n">
-        <v>1.540702668920441</v>
+        <v>1.801165581274896</v>
       </c>
       <c r="I115" t="n">
-        <v>0.8194078665587079</v>
+        <v>0.7722690961253718</v>
       </c>
       <c r="J115" t="n">
-        <v>0.3851756672301102</v>
+        <v>0.450291395318724</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001989471992682378</v>
+        <v>0.00132125263787467</v>
       </c>
       <c r="C116" t="n">
-        <v>9.57553838715218e-05</v>
+        <v>2.594879100315125e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>2.588407278091877e-06</v>
+        <v>6.418516744786744e-05</v>
       </c>
       <c r="E116" t="n">
-        <v>4.271799930208804e-05</v>
+        <v>2.825278278442253e-05</v>
       </c>
       <c r="F116" t="n">
-        <v>7.604344319550261e-05</v>
+        <v>5.221792562969667e-05</v>
       </c>
       <c r="G116" t="n">
-        <v>9.477373256684576e-05</v>
+        <v>6.340506604693865e-05</v>
       </c>
       <c r="H116" t="n">
-        <v>2.339595976491939</v>
+        <v>1.999482699822195</v>
       </c>
       <c r="I116" t="n">
-        <v>0.6735696200134638</v>
+        <v>0.7358540343919879</v>
       </c>
       <c r="J116" t="n">
-        <v>0.5848989941229847</v>
+        <v>0.4998706749555487</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001956536219479135</v>
+        <v>0.001324503908421497</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0001107852468344424</v>
+        <v>2.187902034632698e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.596237141636425e-05</v>
+        <v>9.121632294396679e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>4.198025038313658e-05</v>
+        <v>2.841081650296451e-05</v>
       </c>
       <c r="F117" t="n">
-        <v>7.484753280083695e-05</v>
+        <v>5.236213637342453e-05</v>
       </c>
       <c r="G117" t="n">
-        <v>9.302794399652955e-05</v>
+        <v>6.376564251408534e-05</v>
       </c>
       <c r="H117" t="n">
-        <v>2.038328961556329</v>
+        <v>2.617632520243976</v>
       </c>
       <c r="I117" t="n">
-        <v>0.7287090913164239</v>
+        <v>0.623702798556362</v>
       </c>
       <c r="J117" t="n">
-        <v>0.5095822403890822</v>
+        <v>0.654408130060994</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001956175678390461</v>
+        <v>0.00125782267225719</v>
       </c>
       <c r="C118" t="n">
-        <v>8.931013437140257e-05</v>
+        <v>2.755544832420487e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>5.388554067502997e-05</v>
+        <v>6.299786365263093e-05</v>
       </c>
       <c r="E118" t="n">
-        <v>4.204837166904317e-05</v>
+        <v>2.68780692136999e-05</v>
       </c>
       <c r="F118" t="n">
-        <v>7.568115988798062e-05</v>
+        <v>4.945111437978948e-05</v>
       </c>
       <c r="G118" t="n">
-        <v>9.365053138484013e-05</v>
+        <v>6.048341518720133e-05</v>
       </c>
       <c r="H118" t="n">
-        <v>3.54870865605434</v>
+        <v>1.836068144725032</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4705108392545816</v>
+        <v>0.7658772795568984</v>
       </c>
       <c r="J118" t="n">
-        <v>0.8871771640135849</v>
+        <v>0.459017036181258</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
-        <v>0.00185830338295451</v>
+        <v>0.001225281906263601</v>
       </c>
       <c r="C119" t="n">
-        <v>0.000109850616191686</v>
+        <v>2.343201938333184e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>-3.850102067760614e-06</v>
+        <v>4.623676883475938e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>3.982872101769339e-05</v>
+        <v>2.62354466504159e-05</v>
       </c>
       <c r="F119" t="n">
-        <v>7.091188080831771e-05</v>
+        <v>4.830013706740566e-05</v>
       </c>
       <c r="G119" t="n">
-        <v>8.864928191035279e-05</v>
+        <v>5.870575760036891e-05</v>
       </c>
       <c r="H119" t="n">
-        <v>2.095939911664229</v>
+        <v>1.65255946261301</v>
       </c>
       <c r="I119" t="n">
-        <v>0.7181183298079252</v>
+        <v>0.79931611962174</v>
       </c>
       <c r="J119" t="n">
-        <v>0.5239849779160574</v>
+        <v>0.4131398656532524</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001813632665868387</v>
+        <v>0.001008339295102033</v>
       </c>
       <c r="C120" t="n">
-        <v>9.490199203907631e-05</v>
+        <v>6.365451816742152e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>-2.301956635659833e-05</v>
+        <v>4.212225015373227e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>3.89421064086438e-05</v>
+        <v>2.161533231516354e-05</v>
       </c>
       <c r="F120" t="n">
-        <v>6.946070510762083e-05</v>
+        <v>3.971862127881016e-05</v>
       </c>
       <c r="G120" t="n">
-        <v>8.617297312262794e-05</v>
+        <v>4.826418319354428e-05</v>
       </c>
       <c r="H120" t="n">
-        <v>1.499815924437496</v>
+        <v>1.541714277578447</v>
       </c>
       <c r="I120" t="n">
-        <v>0.8266740734736135</v>
+        <v>0.8192275046763239</v>
       </c>
       <c r="J120" t="n">
-        <v>0.3749539811093741</v>
+        <v>0.3854285693946118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001490922781147</v>
+        <v>0.0009354744297227361</v>
       </c>
       <c r="C121" t="n">
-        <v>6.472222082794688e-05</v>
+        <v>2.204709843139653e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.611379584871364e-05</v>
+        <v>6.783604335260183e-05</v>
       </c>
       <c r="E121" t="n">
-        <v>3.205120689891538e-05</v>
+        <v>2.00914739787491e-05</v>
       </c>
       <c r="F121" t="n">
-        <v>5.697318691062618e-05</v>
+        <v>3.715609162225385e-05</v>
       </c>
       <c r="G121" t="n">
-        <v>7.078160471071127e-05</v>
+        <v>4.534919751392877e-05</v>
       </c>
       <c r="H121" t="n">
-        <v>1.763012164239383</v>
+        <v>3.006491070923051</v>
       </c>
       <c r="I121" t="n">
-        <v>0.7792420843033623</v>
+        <v>0.5567397233196685</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4407530410598457</v>
+        <v>0.7516227677307629</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001384950065970084</v>
+        <v>0.0007866759866496458</v>
       </c>
       <c r="C122" t="n">
-        <v>7.74740250093749e-05</v>
+        <v>2.691522274210912e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>3.263669866151683e-05</v>
+        <v>4.018030550673028e-05</v>
       </c>
       <c r="E122" t="n">
-        <v>2.982398111242969e-05</v>
+        <v>1.682414230989292e-05</v>
       </c>
       <c r="F122" t="n">
-        <v>5.359685124054837e-05</v>
+        <v>3.112689297502387e-05</v>
       </c>
       <c r="G122" t="n">
-        <v>6.663130572386772e-05</v>
+        <v>3.804347742958216e-05</v>
       </c>
       <c r="H122" t="n">
-        <v>3.892467226956592</v>
+        <v>2.340845218537409</v>
       </c>
       <c r="I122" t="n">
-        <v>0.4207543951195725</v>
+        <v>0.673342805444074</v>
       </c>
       <c r="J122" t="n">
-        <v>0.973116806739148</v>
+        <v>0.5852113046343523</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001166153596244909</v>
+        <v>0.0006120569535297865</v>
       </c>
       <c r="C123" t="n">
-        <v>8.664646149868281e-05</v>
+        <v>1.432814501135088e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.203250015543523e-05</v>
+        <v>1.759876535729096e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>2.502970596764147e-05</v>
+        <v>1.310458936012703e-05</v>
       </c>
       <c r="F123" t="n">
-        <v>4.456729014783978e-05</v>
+        <v>2.405482560552026e-05</v>
       </c>
       <c r="G123" t="n">
-        <v>5.584976000004831e-05</v>
+        <v>2.929918535366121e-05</v>
       </c>
       <c r="H123" t="n">
-        <v>1.971491061071531</v>
+        <v>1.439084473057174</v>
       </c>
       <c r="I123" t="n">
-        <v>0.7410026297469843</v>
+        <v>0.8373742944912477</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4928727652678829</v>
+        <v>0.3597711182642935</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0009057378635669149</v>
+        <v>0.0005593383933698716</v>
       </c>
       <c r="C124" t="n">
-        <v>4.836377400167379e-05</v>
+        <v>6.732953520336761e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.434434643754956e-05</v>
+        <v>3.140780832944408e-05</v>
       </c>
       <c r="E124" t="n">
-        <v>1.943802121818576e-05</v>
+        <v>1.20968902682504e-05</v>
       </c>
       <c r="F124" t="n">
-        <v>3.470673702639075e-05</v>
+        <v>2.227113203324571e-05</v>
       </c>
       <c r="G124" t="n">
-        <v>4.303603758144989e-05</v>
+        <v>2.707693363160051e-05</v>
       </c>
       <c r="H124" t="n">
-        <v>1.019001892243262</v>
+        <v>2.576491292894376</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9069011239669421</v>
+        <v>0.6309931856822713</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2547504730608155</v>
+        <v>0.6441228232235939</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0008269545094109347</v>
+        <v>0.0004809554225394651</v>
       </c>
       <c r="C125" t="n">
-        <v>3.905873547751181e-05</v>
+        <v>1.953346495782909e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>4.102586917439097e-06</v>
+        <v>2.546461296432058e-05</v>
       </c>
       <c r="E125" t="n">
-        <v>1.791992706080614e-05</v>
+        <v>1.032936695166285e-05</v>
       </c>
       <c r="F125" t="n">
-        <v>3.209636531137455e-05</v>
+        <v>1.910310185773508e-05</v>
       </c>
       <c r="G125" t="n">
-        <v>3.9706778162553e-05</v>
+        <v>2.340060939949085e-05</v>
       </c>
       <c r="H125" t="n">
-        <v>3.177996611701611</v>
+        <v>2.308465323145005</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5284921857761673</v>
+        <v>0.6792282342806614</v>
       </c>
       <c r="J125" t="n">
-        <v>0.7944991529254027</v>
+        <v>0.5771163307862512</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0007129178071506003</v>
+        <v>0.0004580511732173382</v>
       </c>
       <c r="C126" t="n">
-        <v>5.895753630349272e-05</v>
+        <v>1.144473188951237e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>-7.864700075298735e-06</v>
+        <v>9.923883559226658e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>1.536191635205619e-05</v>
+        <v>9.911642822959114e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>2.736398476393945e-05</v>
+        <v>1.815176313118e-05</v>
       </c>
       <c r="G126" t="n">
-        <v>3.43565345775932e-05</v>
+        <v>2.211009004948574e-05</v>
       </c>
       <c r="H126" t="n">
-        <v>1.843036045333252</v>
+        <v>1.777556653704996</v>
       </c>
       <c r="I126" t="n">
-        <v>0.7645999583367871</v>
+        <v>0.7765858403783044</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4607590113333129</v>
+        <v>0.444389163426249</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
-        <v>0.000678726262623936</v>
+        <v>0.0004592097130561311</v>
       </c>
       <c r="C127" t="n">
-        <v>3.630456950946153e-05</v>
+        <v>7.587750396600686e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.547833103105465e-05</v>
+        <v>1.359073485233085e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>1.470735669632572e-05</v>
+        <v>9.92111910773569e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>2.632595054965006e-05</v>
+        <v>1.82531519611901e-05</v>
       </c>
       <c r="G127" t="n">
-        <v>3.252935473854224e-05</v>
+        <v>2.209378105036017e-05</v>
       </c>
       <c r="H127" t="n">
-        <v>1.074894685422257</v>
+        <v>1.5092109301971</v>
       </c>
       <c r="I127" t="n">
-        <v>0.8982347134836441</v>
+        <v>0.8250086237555342</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2687236713555641</v>
+        <v>0.3773027325492751</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0006817380052267123</v>
+        <v>0.0004545111473396111</v>
       </c>
       <c r="C128" t="n">
-        <v>3.507828957465914e-05</v>
+        <v>1.7966373307294e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.548494632739e-05</v>
+        <v>-2.768396208663315e-06</v>
       </c>
       <c r="E128" t="n">
-        <v>1.476118670412614e-05</v>
+        <v>9.926124824908462e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>2.635074849350203e-05</v>
+        <v>1.815858498567114e-05</v>
       </c>
       <c r="G128" t="n">
-        <v>3.253731897756589e-05</v>
+        <v>2.211175718149197e-05</v>
       </c>
       <c r="H128" t="n">
-        <v>0.9047133316214042</v>
+        <v>2.972211895533257</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9238836437370398</v>
+        <v>0.562486391649073</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2261783329053511</v>
+        <v>0.7430529738833143</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0006744656518929771</v>
+        <v>0.0004413905903409231</v>
       </c>
       <c r="C129" t="n">
-        <v>5.513306690106587e-05</v>
+        <v>1.683408433877774e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>-4.782988235124957e-05</v>
+        <v>-7.508365394677443e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>1.474780154147297e-05</v>
+        <v>9.915210600602976e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>2.611538582327176e-05</v>
+        <v>1.785731468234538e-05</v>
       </c>
       <c r="G129" t="n">
-        <v>3.24772611093912e-05</v>
+        <v>2.196959970571307e-05</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3650282617810482</v>
+        <v>2.292727274592265</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9852386926877663</v>
+        <v>0.682093483083234</v>
       </c>
       <c r="J129" t="n">
-        <v>0.09125706544526206</v>
+        <v>0.5731818186480663</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0006546964268451624</v>
+        <v>0.0004446780639924145</v>
       </c>
       <c r="C130" t="n">
-        <v>4.001625862170752e-05</v>
+        <v>6.110588701792915e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>-3.72536494653771e-05</v>
+        <v>7.888900933587448e-06</v>
       </c>
       <c r="E130" t="n">
-        <v>1.466678935655357e-05</v>
+        <v>1.005670946384496e-05</v>
       </c>
       <c r="F130" t="n">
-        <v>2.633281645457276e-05</v>
+        <v>1.830883233977937e-05</v>
       </c>
       <c r="G130" t="n">
-        <v>3.238686152906422e-05</v>
+        <v>2.225292638364566e-05</v>
       </c>
       <c r="H130" t="n">
-        <v>0.4157662887357156</v>
+        <v>2.519357422038346</v>
       </c>
       <c r="I130" t="n">
-        <v>0.981165837436721</v>
+        <v>0.6411729336852869</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1039415721839289</v>
+        <v>0.6298393555095865</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0006590732738453285</v>
+        <v>0.0004497149283296686</v>
       </c>
       <c r="C131" t="n">
-        <v>4.089257107810603e-05</v>
+        <v>-5.935557890363887e-07</v>
       </c>
       <c r="D131" t="n">
-        <v>-3.480301554036449e-05</v>
+        <v>2.884956066849e-05</v>
       </c>
       <c r="E131" t="n">
-        <v>1.489237340340699e-05</v>
+        <v>1.03355350703598e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>2.654031510435313e-05</v>
+        <v>1.87022987461214e-05</v>
       </c>
       <c r="G131" t="n">
-        <v>3.274146029988959e-05</v>
+        <v>2.283418470650022e-05</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8766388202952872</v>
+        <v>3.219506865091425</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9278881751154254</v>
+        <v>0.5217860265484097</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2191597050738218</v>
+        <v>0.8048767162728562</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
-        <v>0.00066782638487294</v>
+        <v>0.0005026778059218666</v>
       </c>
       <c r="C132" t="n">
-        <v>1.397528857293969e-05</v>
+        <v>1.590203325984522e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>1.842454780108191e-05</v>
+        <v>4.126384382620698e-06</v>
       </c>
       <c r="E132" t="n">
-        <v>1.529226382490953e-05</v>
+        <v>1.130973433685153e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>2.785836144569913e-05</v>
+        <v>2.047899520657197e-05</v>
       </c>
       <c r="G132" t="n">
-        <v>3.379557014067393e-05</v>
+        <v>2.499750558275433e-05</v>
       </c>
       <c r="H132" t="n">
-        <v>3.781657747541097</v>
+        <v>1.44903810825865</v>
       </c>
       <c r="I132" t="n">
-        <v>0.4363609089466884</v>
+        <v>0.8356287431112077</v>
       </c>
       <c r="J132" t="n">
-        <v>0.9454144368852743</v>
+        <v>0.3622595270646625</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0007419073106776131</v>
+        <v>0.0005481529164959392</v>
       </c>
       <c r="C133" t="n">
-        <v>5.270157473209736e-05</v>
+        <v>5.431786115753028e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>-3.275606624627138e-05</v>
+        <v>-6.24676025135721e-06</v>
       </c>
       <c r="E133" t="n">
-        <v>1.666135110825975e-05</v>
+        <v>1.23062747845229e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>2.984513385477814e-05</v>
+        <v>2.215231276709909e-05</v>
       </c>
       <c r="G133" t="n">
-        <v>3.668686966195483e-05</v>
+        <v>2.689369919712183e-05</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3842429624929151</v>
+        <v>1.215378890880714</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9837465325350003</v>
+        <v>0.8755601515212454</v>
       </c>
       <c r="J133" t="n">
-        <v>0.09606074062322878</v>
+        <v>0.3038447227201785</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0008110984407361676</v>
+        <v>0.0005765052581455648</v>
       </c>
       <c r="C134" t="n">
-        <v>2.941844383333057e-05</v>
+        <v>5.68661654083252e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>-3.866197724750812e-05</v>
+        <v>-7.899886270831802e-06</v>
       </c>
       <c r="E134" t="n">
-        <v>1.816570327552564e-05</v>
+        <v>1.293257067969349e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>3.262526562399816e-05</v>
+        <v>2.333373513083287e-05</v>
       </c>
       <c r="G134" t="n">
-        <v>3.966543040605695e-05</v>
+        <v>2.814298135969365e-05</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3719279224588867</v>
+        <v>1.722596125219329</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9847100487090341</v>
+        <v>0.7866090332216605</v>
       </c>
       <c r="J134" t="n">
-        <v>0.09298198061472167</v>
+        <v>0.4306490313048323</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0008505458412969131</v>
+        <v>0.0005815453425130225</v>
       </c>
       <c r="C135" t="n">
-        <v>3.572918479003481e-05</v>
+        <v>1.432344078127769e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>-4.526357423903873e-05</v>
+        <v>8.699779911870579e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>1.903922079724162e-05</v>
+        <v>1.315014957304038e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>3.419821744803104e-05</v>
+        <v>2.390306742139525e-05</v>
       </c>
       <c r="G135" t="n">
-        <v>4.142820887231836e-05</v>
+        <v>2.913982639790079e-05</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7555121056727006</v>
+        <v>2.454033637400923</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9443108037268719</v>
+        <v>0.6528852593256811</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1888780264181751</v>
+        <v>0.6135084093502308</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0008632031472484797</v>
+        <v>0.0005704039690835095</v>
       </c>
       <c r="C136" t="n">
-        <v>5.072239121175402e-05</v>
+        <v>1.82739173697815e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>-2.952103676109505e-05</v>
+        <v>-1.867385314752612e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>1.948063795473973e-05</v>
+        <v>1.283112793863532e-05</v>
       </c>
       <c r="F136" t="n">
-        <v>3.504414370496016e-05</v>
+        <v>2.301527947965216e-05</v>
       </c>
       <c r="G136" t="n">
-        <v>4.300692254510773e-05</v>
+        <v>2.814904770533666e-05</v>
       </c>
       <c r="H136" t="n">
-        <v>1.283367516983851</v>
+        <v>1.81470153119863</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8641910937374455</v>
+        <v>0.769791546143156</v>
       </c>
       <c r="J136" t="n">
-        <v>0.3208418792459629</v>
+        <v>0.4536753827996575</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0008429456624808793</v>
+        <v>0.0005421480398599475</v>
       </c>
       <c r="C137" t="n">
-        <v>4.615035175505565e-05</v>
+        <v>1.895038264429147e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>-5.681159861902841e-05</v>
+        <v>1.936891750654391e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>1.891068884326007e-05</v>
+        <v>1.223729676398701e-05</v>
       </c>
       <c r="F137" t="n">
-        <v>3.393348319868256e-05</v>
+        <v>2.217962853526671e-05</v>
       </c>
       <c r="G137" t="n">
-        <v>4.14546078871877e-05</v>
+        <v>2.72830312490797e-05</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3512958891855391</v>
+        <v>2.164185243771747</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9862666678088802</v>
+        <v>0.7055912566709198</v>
       </c>
       <c r="J137" t="n">
-        <v>0.08782397229638476</v>
+        <v>0.5410463109429368</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0007998222066655566</v>
+        <v>0.0004652909072460537</v>
       </c>
       <c r="C138" t="n">
-        <v>5.160197382203421e-05</v>
+        <v>1.321233239924807e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>-4.518321469764016e-06</v>
+        <v>-3.260810357619162e-06</v>
       </c>
       <c r="E138" t="n">
-        <v>1.800918695377227e-05</v>
+        <v>1.038594258950495e-05</v>
       </c>
       <c r="F138" t="n">
-        <v>3.257118931105192e-05</v>
+        <v>1.881335689270222e-05</v>
       </c>
       <c r="G138" t="n">
-        <v>4.013149743417269e-05</v>
+        <v>2.29848438722776e-05</v>
       </c>
       <c r="H138" t="n">
-        <v>1.997868549452763</v>
+        <v>2.324950402685229</v>
       </c>
       <c r="I138" t="n">
-        <v>0.7361509406867315</v>
+        <v>0.676230212977629</v>
       </c>
       <c r="J138" t="n">
-        <v>0.4994671373631907</v>
+        <v>0.5812376006713074</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0006899870105582029</v>
+        <v>0.0002914519151903295</v>
       </c>
       <c r="C139" t="n">
-        <v>3.935425591953238e-05</v>
+        <v>6.272425301937152e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>-3.757395563216113e-05</v>
+        <v>-1.493951843324463e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>1.537850721590938e-05</v>
+        <v>6.517321047584545e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>2.755934292631509e-05</v>
+        <v>1.175122032508213e-05</v>
       </c>
       <c r="G139" t="n">
-        <v>3.38523219979918e-05</v>
+        <v>1.437543023301222e-05</v>
       </c>
       <c r="H139" t="n">
-        <v>0.5060844017908039</v>
+        <v>1.359280708932961</v>
       </c>
       <c r="I139" t="n">
-        <v>0.9729059651957903</v>
+        <v>0.8512404344106588</v>
       </c>
       <c r="J139" t="n">
-        <v>0.126521100447701</v>
+        <v>0.3398201772332402</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0004307616918998181</v>
+        <v>0.0002458982137642296</v>
       </c>
       <c r="C140" t="n">
-        <v>2.016869394288242e-05</v>
+        <v>5.578284175196212e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.755468020375424e-05</v>
+        <v>7.598059514416118e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>9.611050583105931e-06</v>
+        <v>5.594289311332589e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>1.726548324526395e-05</v>
+        <v>9.981775067865052e-06</v>
       </c>
       <c r="G140" t="n">
-        <v>2.115427059334717e-05</v>
+        <v>1.239295747802134e-05</v>
       </c>
       <c r="H140" t="n">
-        <v>0.2864618317624029</v>
+        <v>4.124062370963565</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9906712598857993</v>
+        <v>0.3894761282962032</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07161545794060072</v>
+        <v>1.031015592740891</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0003614754930338811</v>
+        <v>0.000196526042366269</v>
       </c>
       <c r="C141" t="n">
-        <v>1.178653400505167e-05</v>
+        <v>5.923080899232629e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>1.030573635166942e-05</v>
+        <v>9.950842987419776e-08</v>
       </c>
       <c r="E141" t="n">
-        <v>8.177765913390875e-06</v>
+        <v>4.367131523878165e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>1.49687890045411e-05</v>
+        <v>7.948207962959969e-06</v>
       </c>
       <c r="G141" t="n">
-        <v>1.827206180596718e-05</v>
+        <v>9.666828010403386e-06</v>
       </c>
       <c r="H141" t="n">
-        <v>3.334346200168043</v>
+        <v>2.069179679807257</v>
       </c>
       <c r="I141" t="n">
-        <v>0.5035088688538051</v>
+        <v>0.7230364853998028</v>
       </c>
       <c r="J141" t="n">
-        <v>0.8335865500420107</v>
+        <v>0.5172949199518142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002915168901096309</v>
+        <v>0.0001518874629243444</v>
       </c>
       <c r="C142" t="n">
-        <v>1.943511411642328e-05</v>
+        <v>8.267903587993634e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.771156057815698e-05</v>
+        <v>5.034145479492202e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>6.476610315976711e-06</v>
+        <v>3.43692779534213e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>1.153692243133394e-05</v>
+        <v>6.282283828447773e-06</v>
       </c>
       <c r="G142" t="n">
-        <v>1.420530321698148e-05</v>
+        <v>7.705907336635038e-06</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1904743335210505</v>
+        <v>2.830256166632741</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9957428511628421</v>
+        <v>0.5866213299794523</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04761858338026262</v>
+        <v>0.7075640416581852</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002249272321056445</v>
+        <v>0.0001429236585382152</v>
       </c>
       <c r="C143" t="n">
-        <v>2.285993443620327e-05</v>
+        <v>2.287262764977474e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>-7.916544805590083e-06</v>
+        <v>5.485433311769853e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>5.081969561506614e-06</v>
+        <v>3.308823131941257e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>9.138097459337792e-06</v>
+        <v>5.935758913321355e-06</v>
       </c>
       <c r="G143" t="n">
-        <v>1.133690538959596e-05</v>
+        <v>7.287954659219728e-06</v>
       </c>
       <c r="H143" t="n">
-        <v>1.178757184504309</v>
+        <v>2.760003420610453</v>
       </c>
       <c r="I143" t="n">
-        <v>0.88158357214496</v>
+        <v>0.5987563625013228</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2946892961260772</v>
+        <v>0.6900008551526133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002126004864517632</v>
+        <v>0.0001406361268284369</v>
       </c>
       <c r="C144" t="n">
-        <v>2.022738353879802e-06</v>
+        <v>9.975714852540076e-07</v>
       </c>
       <c r="D144" t="n">
-        <v>8.175146848804406e-06</v>
+        <v>-6.112599200364577e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>4.892539232373155e-06</v>
+        <v>3.69318539691257e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>9.057788150972198e-06</v>
+        <v>6.343882546612848e-06</v>
       </c>
       <c r="G144" t="n">
-        <v>1.086925707932979e-05</v>
+        <v>7.876439476809645e-06</v>
       </c>
       <c r="H144" t="n">
-        <v>3.875121739825999</v>
+        <v>2.512067995288795</v>
       </c>
       <c r="I144" t="n">
-        <v>0.4231700086473356</v>
+        <v>0.642476143112668</v>
       </c>
       <c r="J144" t="n">
-        <v>0.9687804349564997</v>
+        <v>0.6280169988221986</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0002052053283326672</v>
+        <v>0.0001435784801030762</v>
       </c>
       <c r="C145" t="n">
-        <v>6.231160357769044e-06</v>
+        <v>6.286976100622585e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.088232852951868e-05</v>
+        <v>2.92299275951813e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>5.322984147116961e-06</v>
+        <v>3.616081171887627e-06</v>
       </c>
       <c r="F145" t="n">
-        <v>9.80318873260892e-06</v>
+        <v>6.406827033104921e-06</v>
       </c>
       <c r="G145" t="n">
-        <v>1.169317985136531e-05</v>
+        <v>7.912881612404013e-06</v>
       </c>
       <c r="H145" t="n">
-        <v>1.22390991841816</v>
+        <v>1.145324805501141</v>
       </c>
       <c r="I145" t="n">
-        <v>0.8741465356509236</v>
+        <v>0.8870158552406997</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3059774796045401</v>
+        <v>0.2863312013752853</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0002137017405652374</v>
+        <v>0.0001366878406123011</v>
       </c>
       <c r="C146" t="n">
-        <v>1.113642612080864e-05</v>
+        <v>2.100986882899928e-06</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.048109581989933e-06</v>
+        <v>1.048488340573149e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>5.324129042333078e-06</v>
+        <v>3.700134658141374e-06</v>
       </c>
       <c r="F146" t="n">
-        <v>9.842309523963343e-06</v>
+        <v>6.48937112117711e-06</v>
       </c>
       <c r="G146" t="n">
-        <v>1.176804795551586e-05</v>
+        <v>8.074646412459193e-06</v>
       </c>
       <c r="H146" t="n">
-        <v>0.2685049506770676</v>
+        <v>3.36599298625093</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9917555202603079</v>
+        <v>0.4985445982162683</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0671262376692669</v>
+        <v>0.8414982465627324</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0002026587646985162</v>
+        <v>0.0001359435454987607</v>
       </c>
       <c r="C147" t="n">
-        <v>8.283021278547597e-06</v>
+        <v>1.54214749816743e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>1.05003479128527e-05</v>
+        <v>8.02467861458811e-06</v>
       </c>
       <c r="E147" t="n">
-        <v>5.402382141277157e-06</v>
+        <v>3.807380602916134e-06</v>
       </c>
       <c r="F147" t="n">
-        <v>1.008401453175848e-05</v>
+        <v>6.742332598203463e-06</v>
       </c>
       <c r="G147" t="n">
-        <v>1.208455516285567e-05</v>
+        <v>8.55684951176454e-06</v>
       </c>
       <c r="H147" t="n">
-        <v>3.690765038394993</v>
+        <v>5.066159262226694</v>
       </c>
       <c r="I147" t="n">
-        <v>0.4494705216590689</v>
+        <v>0.2805762587530024</v>
       </c>
       <c r="J147" t="n">
-        <v>0.9226912595987483</v>
+        <v>1.266539815556674</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0002022090519357687</v>
+        <v>0.0001366123718327163</v>
       </c>
       <c r="C148" t="n">
-        <v>3.319130155714403e-05</v>
+        <v>1.272467205118788e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>-6.188837808365885e-06</v>
+        <v>7.373923991629356e-06</v>
       </c>
       <c r="E148" t="n">
-        <v>5.556024469294935e-06</v>
+        <v>3.803640749832629e-06</v>
       </c>
       <c r="F148" t="n">
-        <v>1.027423866825583e-05</v>
+        <v>6.692256433175272e-06</v>
       </c>
       <c r="G148" t="n">
-        <v>1.264327539793813e-05</v>
+        <v>8.236810625570689e-06</v>
       </c>
       <c r="H148" t="n">
-        <v>1.697059398973621</v>
+        <v>1.717545822755307</v>
       </c>
       <c r="I148" t="n">
-        <v>0.7912517186809076</v>
+        <v>0.7875279897040283</v>
       </c>
       <c r="J148" t="n">
-        <v>0.4242648497434053</v>
+        <v>0.4293864556888268</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0002023829612722775</v>
+        <v>0.0001361220669321244</v>
       </c>
       <c r="C149" t="n">
-        <v>1.143153843311676e-05</v>
+        <v>-1.703243450172138e-07</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.356275750865005e-06</v>
+        <v>1.239657466747856e-05</v>
       </c>
       <c r="E149" t="n">
-        <v>5.556045018596934e-06</v>
+        <v>3.774975756038415e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>1.024319165161141e-05</v>
+        <v>6.629597821634732e-06</v>
       </c>
       <c r="G149" t="n">
-        <v>1.220007781809136e-05</v>
+        <v>8.100860913517867e-06</v>
       </c>
       <c r="H149" t="n">
-        <v>2.10635680476829</v>
+        <v>1.799898039365983</v>
       </c>
       <c r="I149" t="n">
-        <v>0.7162046207080384</v>
+        <v>0.7725010077994204</v>
       </c>
       <c r="J149" t="n">
-        <v>0.5265892011920725</v>
+        <v>0.4499745098414958</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
-        <v>0.000199147001410306</v>
+        <v>0.0001341115842147438</v>
       </c>
       <c r="C150" t="n">
-        <v>9.46598721482835e-06</v>
+        <v>4.838074911901264e-07</v>
       </c>
       <c r="D150" t="n">
-        <v>7.399571335212215e-06</v>
+        <v>-1.628799478943922e-06</v>
       </c>
       <c r="E150" t="n">
-        <v>5.456425430809075e-06</v>
+        <v>3.766131913653078e-06</v>
       </c>
       <c r="F150" t="n">
-        <v>1.018247944110448e-05</v>
+        <v>6.505477603867259e-06</v>
       </c>
       <c r="G150" t="n">
-        <v>1.199768114631606e-05</v>
+        <v>8.079261631005475e-06</v>
       </c>
       <c r="H150" t="n">
-        <v>3.293826214675756</v>
+        <v>1.893308187959295</v>
       </c>
       <c r="I150" t="n">
-        <v>0.5099110340713779</v>
+        <v>0.7553741841197802</v>
       </c>
       <c r="J150" t="n">
-        <v>0.8234565536689389</v>
+        <v>0.4733270469898239</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
-        <v>0.000199487895589295</v>
+        <v>0.0001316948281702436</v>
       </c>
       <c r="C151" t="n">
-        <v>9.330329808289315e-06</v>
+        <v>8.888030218155384e-06</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.241699936187907e-05</v>
+        <v>8.088437070857325e-07</v>
       </c>
       <c r="E151" t="n">
-        <v>5.502656098329531e-06</v>
+        <v>3.668575921541007e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>1.0135006663154e-05</v>
+        <v>6.266170245578378e-06</v>
       </c>
       <c r="G151" t="n">
-        <v>1.207179881615683e-05</v>
+        <v>8.117294409349378e-06</v>
       </c>
       <c r="H151" t="n">
-        <v>0.3922518870032866</v>
+        <v>7.978972633089286</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9831063361226526</v>
+        <v>0.09235149771493867</v>
       </c>
       <c r="J151" t="n">
-        <v>0.09806297175082165</v>
+        <v>1.994743158272321</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001927608961108338</v>
+        <v>0.0001318898045597999</v>
       </c>
       <c r="C152" t="n">
-        <v>1.47248500374041e-05</v>
+        <v>-8.722156508732178e-07</v>
       </c>
       <c r="D152" t="n">
-        <v>1.306470863822885e-06</v>
+        <v>-1.646088318297233e-06</v>
       </c>
       <c r="E152" t="n">
-        <v>5.267431011081333e-06</v>
+        <v>3.738690678368867e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>9.840865023796427e-06</v>
+        <v>6.303059829069108e-06</v>
       </c>
       <c r="G152" t="n">
-        <v>1.202702450556903e-05</v>
+        <v>7.872309864162007e-06</v>
       </c>
       <c r="H152" t="n">
-        <v>8.088834537595417</v>
+        <v>2.62717370651164</v>
       </c>
       <c r="I152" t="n">
-        <v>0.08837774200253874</v>
+        <v>0.622017045258882</v>
       </c>
       <c r="J152" t="n">
-        <v>2.022208634398854</v>
+        <v>0.65679342662791</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001916618152383794</v>
+        <v>0.0001183849360322415</v>
       </c>
       <c r="C153" t="n">
-        <v>-4.925096056803487e-07</v>
+        <v>1.04697480818924e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>5.575605593679004e-07</v>
+        <v>1.18547278902432e-05</v>
       </c>
       <c r="E153" t="n">
-        <v>5.348922709570318e-06</v>
+        <v>3.349296804335401e-06</v>
       </c>
       <c r="F153" t="n">
-        <v>1.000645936325447e-05</v>
+        <v>5.933895467486859e-06</v>
       </c>
       <c r="G153" t="n">
-        <v>1.170577246380978e-05</v>
+        <v>7.533519997508125e-06</v>
       </c>
       <c r="H153" t="n">
-        <v>1.084981153818087</v>
+        <v>4.80353749132628</v>
       </c>
       <c r="I153" t="n">
-        <v>0.8966477346025944</v>
+        <v>0.3080561430483549</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2712452884545217</v>
+        <v>1.20088437283157</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001775980749345649</v>
+        <v>0.0001204346355127321</v>
       </c>
       <c r="C154" t="n">
-        <v>2.541427729299683e-05</v>
+        <v>2.442659615459476e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.66583971407321e-07</v>
+        <v>6.762549400962089e-06</v>
       </c>
       <c r="E154" t="n">
-        <v>4.932039005469098e-06</v>
+        <v>3.487568393753201e-06</v>
       </c>
       <c r="F154" t="n">
-        <v>9.084206894977529e-06</v>
+        <v>5.984872635205522e-06</v>
       </c>
       <c r="G154" t="n">
-        <v>1.121562556339422e-05</v>
+        <v>7.590777235708808e-06</v>
       </c>
       <c r="H154" t="n">
-        <v>4.234814377399141</v>
+        <v>8.780481420097493</v>
       </c>
       <c r="I154" t="n">
-        <v>0.3751589179290801</v>
+        <v>0.06682682765321021</v>
       </c>
       <c r="J154" t="n">
-        <v>1.058703594349785</v>
+        <v>2.195120355024373</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001788296996013865</v>
+        <v>0.0001211699482547004</v>
       </c>
       <c r="C155" t="n">
-        <v>1.85116397858339e-06</v>
+        <v>-4.683082263382855e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>1.143596427357631e-05</v>
+        <v>4.220008873575957e-06</v>
       </c>
       <c r="E155" t="n">
-        <v>5.071461770627668e-06</v>
+        <v>3.489222180422646e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>9.597207036073898e-06</v>
+        <v>6.080005231519495e-06</v>
       </c>
       <c r="G155" t="n">
-        <v>1.139831921320949e-05</v>
+        <v>7.477610772536683e-06</v>
       </c>
       <c r="H155" t="n">
-        <v>7.547204790148179</v>
+        <v>3.797890259926585</v>
       </c>
       <c r="I155" t="n">
-        <v>0.1096456851384355</v>
+        <v>0.4340488440015914</v>
       </c>
       <c r="J155" t="n">
-        <v>1.886801197537045</v>
+        <v>0.9494725649816463</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001809833050499902</v>
+        <v>0.0001208193038828718</v>
       </c>
       <c r="C156" t="n">
-        <v>4.155879273700172e-06</v>
+        <v>-4.761578420848969e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.236574532191255e-05</v>
+        <v>2.634487119752659e-06</v>
       </c>
       <c r="E156" t="n">
-        <v>5.139613048737604e-06</v>
+        <v>3.397775284360294e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>9.314414059267178e-06</v>
+        <v>5.858440269586237e-06</v>
       </c>
       <c r="G156" t="n">
-        <v>1.115588242909986e-05</v>
+        <v>7.238670951193574e-06</v>
       </c>
       <c r="H156" t="n">
-        <v>5.653230004376045</v>
+        <v>2.416075917237544</v>
       </c>
       <c r="I156" t="n">
-        <v>0.2265851647937512</v>
+        <v>0.6597240490135263</v>
       </c>
       <c r="J156" t="n">
-        <v>1.413307501094011</v>
+        <v>0.604018979309386</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001798164912673991</v>
+        <v>0.0001066696036486944</v>
       </c>
       <c r="C157" t="n">
-        <v>-3.464744152160661e-06</v>
+        <v>4.120317889203142e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>-3.434718056678266e-06</v>
+        <v>8.501940179968091e-06</v>
       </c>
       <c r="E157" t="n">
-        <v>4.980055903741966e-06</v>
+        <v>2.88711394620859e-06</v>
       </c>
       <c r="F157" t="n">
-        <v>9.170733129893255e-06</v>
+        <v>5.088443793146474e-06</v>
       </c>
       <c r="G157" t="n">
-        <v>1.084176565061613e-05</v>
+        <v>6.350636573246153e-06</v>
       </c>
       <c r="H157" t="n">
-        <v>3.343443108163155</v>
+        <v>5.196910126004584</v>
       </c>
       <c r="I157" t="n">
-        <v>0.5020786427783611</v>
+        <v>0.2676833682189586</v>
       </c>
       <c r="J157" t="n">
-        <v>0.8358607770407888</v>
+        <v>1.299227531501146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001586975596237607</v>
+        <v>9.271403551196339e-05</v>
       </c>
       <c r="C158" t="n">
-        <v>8.738220137473121e-06</v>
+        <v>-1.82777507113311e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>6.203189539131008e-06</v>
+        <v>6.993553103179907e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>4.235595990875637e-06</v>
+        <v>2.690982138437851e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>7.854221260048685e-06</v>
+        <v>4.790256652473216e-06</v>
       </c>
       <c r="G158" t="n">
-        <v>9.453696520348768e-06</v>
+        <v>5.850687045381964e-06</v>
       </c>
       <c r="H158" t="n">
-        <v>5.866853162055027</v>
+        <v>6.280187947818558</v>
       </c>
       <c r="I158" t="n">
-        <v>0.2093148646090491</v>
+        <v>0.1791780119184315</v>
       </c>
       <c r="J158" t="n">
-        <v>1.466713290513757</v>
+        <v>1.57004698695464</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0001391339596469012</v>
+        <v>8.816842111172245e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>9.144157850212711e-06</v>
+        <v>1.44756084738345e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>-7.756151666647433e-06</v>
+        <v>-1.32230863063602e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>3.97884401361063e-06</v>
+        <v>2.379035195834072e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>7.242070664908948e-06</v>
+        <v>4.141026930704737e-06</v>
       </c>
       <c r="G159" t="n">
-        <v>8.711530837444527e-06</v>
+        <v>5.095108464927968e-06</v>
       </c>
       <c r="H159" t="n">
-        <v>5.428772051738225</v>
+        <v>1.289849883091651</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2460617814924753</v>
+        <v>0.8630952815724316</v>
       </c>
       <c r="J159" t="n">
-        <v>1.357193012934556</v>
+        <v>0.3224624707729127</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
-        <v>0.000129259582410683</v>
+        <v>8.599710710864717e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>9.403397266098169e-06</v>
+        <v>4.907427313219279e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.080895957133573e-05</v>
+        <v>3.747763999931234e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>3.447792152230697e-06</v>
+        <v>2.504552700620037e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>6.274492269325313e-06</v>
+        <v>4.333322800464991e-06</v>
       </c>
       <c r="G160" t="n">
-        <v>7.506860074029043e-06</v>
+        <v>5.44088939558473e-06</v>
       </c>
       <c r="H160" t="n">
-        <v>0.6703826140550893</v>
+        <v>1.553619870119769</v>
       </c>
       <c r="I160" t="n">
-        <v>0.9549304920941345</v>
+        <v>0.8171028130027975</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1675956535137723</v>
+        <v>0.3884049675299421</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
-        <v>0.000126413214372375</v>
+        <v>0.0001065970059101856</v>
       </c>
       <c r="C161" t="n">
-        <v>9.74526156295853e-06</v>
+        <v>1.523250159019373e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>1.126265442739785e-06</v>
+        <v>-3.460472663454408e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>3.617916295307384e-06</v>
+        <v>2.757214043132886e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>6.790645932886574e-06</v>
+        <v>4.82567564953049e-06</v>
       </c>
       <c r="G161" t="n">
-        <v>8.097092538472342e-06</v>
+        <v>5.901203949516729e-06</v>
       </c>
       <c r="H161" t="n">
-        <v>1.871742026626823</v>
+        <v>1.792978734410723</v>
       </c>
       <c r="I161" t="n">
-        <v>0.7593339192426637</v>
+        <v>0.7737666848401641</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4679355066567057</v>
+        <v>0.4482446836026807</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001587280995454347</v>
+        <v>0.0001849546508203854</v>
       </c>
       <c r="C162" t="n">
-        <v>6.494368666636521e-06</v>
+        <v>2.738562507912198e-07</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.185529794667597e-05</v>
+        <v>6.595321590830057e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>4.055408348024176e-06</v>
+        <v>4.506045783891458e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>7.454352743824848e-06</v>
+        <v>8.174478272279355e-06</v>
       </c>
       <c r="G162" t="n">
-        <v>8.822669453400206e-06</v>
+        <v>9.944291146691252e-06</v>
       </c>
       <c r="H162" t="n">
-        <v>0.9782613123892322</v>
+        <v>5.167133408454465</v>
       </c>
       <c r="I162" t="n">
-        <v>0.913074174819825</v>
+        <v>0.2705744158615905</v>
       </c>
       <c r="J162" t="n">
-        <v>0.244565328097308</v>
+        <v>1.291783352113616</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002762939196107573</v>
+        <v>0.0002273727176250479</v>
       </c>
       <c r="C163" t="n">
-        <v>2.331789772913408e-05</v>
+        <v>5.6008913593546e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.678295524284158e-05</v>
+        <v>-1.823586915640897e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>6.699316845696365e-06</v>
+        <v>5.350430745086286e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>1.184426732552214e-05</v>
+        <v>9.508606417891122e-06</v>
       </c>
       <c r="G163" t="n">
-        <v>1.463821534469406e-05</v>
+        <v>1.164699446048343e-05</v>
       </c>
       <c r="H163" t="n">
-        <v>1.8622748865498</v>
+        <v>0.8658127935791263</v>
       </c>
       <c r="I163" t="n">
-        <v>0.7610712755624794</v>
+        <v>0.9294134694254674</v>
       </c>
       <c r="J163" t="n">
-        <v>0.4655687216374501</v>
+        <v>0.2164531983947816</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003348661844436274</v>
+        <v>0.000241850347195317</v>
       </c>
       <c r="C164" t="n">
-        <v>1.356464106383608e-05</v>
+        <v>6.997465888620774e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>-8.825836015010594e-06</v>
+        <v>4.233142917374792e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>7.832183590459986e-06</v>
+        <v>5.646308047603407e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>1.428950601537585e-05</v>
+        <v>1.013470350012333e-05</v>
       </c>
       <c r="G164" t="n">
-        <v>1.720386530690009e-05</v>
+        <v>1.243293149622591e-05</v>
       </c>
       <c r="H164" t="n">
-        <v>0.4258146683752443</v>
+        <v>1.020124988657527</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9803093429514582</v>
+        <v>0.9067291843722263</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1064536670938111</v>
+        <v>0.2550312471643819</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0003564984043427819</v>
+        <v>0.0002472864292717167</v>
       </c>
       <c r="C165" t="n">
-        <v>2.175377583422763e-05</v>
+        <v>3.597126050119493e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>-8.188702966637927e-06</v>
+        <v>-2.838779332457525e-07</v>
       </c>
       <c r="E165" t="n">
-        <v>8.282366888916345e-06</v>
+        <v>5.816842576263461e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>1.501258343145124e-05</v>
+        <v>1.03066060937986e-05</v>
       </c>
       <c r="G165" t="n">
-        <v>1.83333606178616e-05</v>
+        <v>1.268634516876761e-05</v>
       </c>
       <c r="H165" t="n">
-        <v>0.5257506204372712</v>
+        <v>0.8193869662797114</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9709462215693785</v>
+        <v>0.9358302364896776</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1314376551093178</v>
+        <v>0.2048467415699279</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0003623482079790716</v>
+        <v>0.0002519289788509245</v>
       </c>
       <c r="C166" t="n">
-        <v>1.66773448792505e-05</v>
+        <v>1.268950786548995e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.049964329201283e-05</v>
+        <v>1.002550982750561e-05</v>
       </c>
       <c r="E166" t="n">
-        <v>8.471779372805636e-06</v>
+        <v>6.038189820848181e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>1.535006971172057e-05</v>
+        <v>1.077540002491028e-05</v>
       </c>
       <c r="G166" t="n">
-        <v>1.86296511166599e-05</v>
+        <v>1.343958015991331e-05</v>
       </c>
       <c r="H166" t="n">
-        <v>0.5615272252138289</v>
+        <v>3.72116614035145</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9672414352294622</v>
+        <v>0.445054917004201</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1403818063034572</v>
+        <v>0.9302915350878624</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0003716258431152371</v>
+        <v>0.0002537184996205051</v>
       </c>
       <c r="C167" t="n">
-        <v>3.072738367930353e-05</v>
+        <v>4.191121988429924e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>4.089813445724497e-06</v>
+        <v>4.434154615882264e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>8.82984364774151e-06</v>
+        <v>5.821068751694704e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>1.62202619977249e-05</v>
+        <v>1.051467641719592e-05</v>
       </c>
       <c r="G167" t="n">
-        <v>1.987720994202639e-05</v>
+        <v>1.27778533707238e-05</v>
       </c>
       <c r="H167" t="n">
-        <v>3.224658143525455</v>
+        <v>1.060511507201729</v>
       </c>
       <c r="I167" t="n">
-        <v>0.5209574639308545</v>
+        <v>0.9004858095072004</v>
       </c>
       <c r="J167" t="n">
-        <v>0.8061645358813638</v>
+        <v>0.2651278768004323</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0003773174227116752</v>
+        <v>0.0002454570459951823</v>
       </c>
       <c r="C168" t="n">
-        <v>1.612594739192259e-05</v>
+        <v>7.254459777998194e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>-8.677997457160283e-06</v>
+        <v>1.835105678005787e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>8.623622853005843e-06</v>
+        <v>5.601002104268472e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>1.562025095899714e-05</v>
+        <v>1.005079174281924e-05</v>
       </c>
       <c r="G168" t="n">
-        <v>1.892235378479423e-05</v>
+        <v>1.237629240520141e-05</v>
       </c>
       <c r="H168" t="n">
-        <v>0.4911580003003959</v>
+        <v>1.477373588513542</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9743560205204471</v>
+        <v>0.8306417518803892</v>
       </c>
       <c r="J168" t="n">
-        <v>0.122789500075099</v>
+        <v>0.3693433971283854</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
-        <v>0.000362774181707773</v>
+        <v>0.0002252661632429881</v>
       </c>
       <c r="C169" t="n">
-        <v>1.811740489705732e-05</v>
+        <v>9.858054517236929e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>-7.013500011100174e-06</v>
+        <v>5.500356643322268e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>8.24367540278084e-06</v>
+        <v>5.084582152049911e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>1.495210640274754e-05</v>
+        <v>9.248576263025832e-06</v>
       </c>
       <c r="G169" t="n">
-        <v>1.828708321453564e-05</v>
+        <v>1.139635778025401e-05</v>
       </c>
       <c r="H169" t="n">
-        <v>1.006831613828693</v>
+        <v>2.717726643464318</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9087583305829962</v>
+        <v>0.6061162606501413</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2517079034571733</v>
+        <v>0.6794316608660795</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0003342946148933026</v>
+        <v>0.0001415680531670075</v>
       </c>
       <c r="C170" t="n">
-        <v>2.716120687840413e-05</v>
+        <v>2.482126851063691e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.157411928512185e-05</v>
+        <v>9.094894175134237e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>7.533768819346125e-06</v>
+        <v>3.389576263203296e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>1.350550006000603e-05</v>
+        <v>6.087343140249829e-06</v>
       </c>
       <c r="G170" t="n">
-        <v>1.678697729982682e-05</v>
+        <v>7.515027573773304e-06</v>
       </c>
       <c r="H170" t="n">
-        <v>1.111401763617682</v>
+        <v>6.495106328270627</v>
       </c>
       <c r="I170" t="n">
-        <v>0.8924589954353471</v>
+        <v>0.1650989854598789</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2778504409044204</v>
+        <v>1.623776582067657</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0002098598480215547</v>
+        <v>9.233420437968237e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>9.298124270950604e-06</v>
+        <v>1.78709185675447e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>4.059548984527105e-06</v>
+        <v>7.558001500979392e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>4.991342152100158e-06</v>
+        <v>2.154488710260362e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>9.144693400564659e-06</v>
+        <v>3.889138311299364e-06</v>
       </c>
       <c r="G171" t="n">
-        <v>1.114333991774513e-05</v>
+        <v>4.799476781560382e-06</v>
       </c>
       <c r="H171" t="n">
-        <v>7.096063562604654</v>
+        <v>5.889376716859145</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1308979564838321</v>
+        <v>0.207563408294915</v>
       </c>
       <c r="J171" t="n">
-        <v>1.774015890651163</v>
+        <v>1.472344179214786</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001367935798510084</v>
+        <v>8.419718988585551e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>6.153627298254377e-06</v>
+        <v>2.924303236348799e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>6.546573006983646e-06</v>
+        <v>5.73744983281282e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>3.17523991860403e-06</v>
+        <v>2.022082528520615e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>5.825381926500586e-06</v>
+        <v>3.64481699535955e-06</v>
       </c>
       <c r="G172" t="n">
-        <v>7.133112262932116e-06</v>
+        <v>4.517810096556296e-06</v>
       </c>
       <c r="H172" t="n">
-        <v>6.700714169400578</v>
+        <v>4.7784794170185</v>
       </c>
       <c r="I172" t="n">
-        <v>0.1525749765064512</v>
+        <v>0.3107911651514623</v>
       </c>
       <c r="J172" t="n">
-        <v>1.675178542350144</v>
+        <v>1.194619854254625</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001255481062307427</v>
+        <v>9.745026840402588e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>7.795927086286201e-06</v>
+        <v>5.11570244236369e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>8.583393662540495e-07</v>
+        <v>6.906644714380533e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>2.993042705108437e-06</v>
+        <v>2.49986129151777e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>5.470169527801057e-06</v>
+        <v>4.454590554673738e-06</v>
       </c>
       <c r="G173" t="n">
-        <v>6.673886159295522e-06</v>
+        <v>5.541731817105441e-06</v>
       </c>
       <c r="H173" t="n">
-        <v>3.012539462791033</v>
+        <v>1.692887468817268</v>
       </c>
       <c r="I173" t="n">
-        <v>0.5557291484622717</v>
+        <v>0.7920092158633295</v>
       </c>
       <c r="J173" t="n">
-        <v>0.7531348656977583</v>
+        <v>0.4232218672043169</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001451948996666279</v>
+        <v>0.0001369266488330788</v>
       </c>
       <c r="C174" t="n">
-        <v>1.289007235389175e-05</v>
+        <v>4.379763084849127e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>1.848977945968793e-06</v>
+        <v>1.255152693913341e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>3.675348351214444e-06</v>
+        <v>3.205151656689635e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>6.796601906003747e-06</v>
+        <v>5.793628368217002e-06</v>
       </c>
       <c r="G174" t="n">
-        <v>8.234985585606444e-06</v>
+        <v>7.082000610458827e-06</v>
       </c>
       <c r="H174" t="n">
-        <v>0.9930674564332277</v>
+        <v>2.89825782632512</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9108453614279294</v>
+        <v>0.5749935259444596</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2482668641083069</v>
+        <v>0.7245644565812801</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002033629357396572</v>
+        <v>0.0001529703243506324</v>
       </c>
       <c r="C175" t="n">
-        <v>1.61560407781144e-05</v>
+        <v>3.456672753272784e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.34512416042397e-05</v>
+        <v>4.703415107382223e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>4.74000248113727e-06</v>
+        <v>3.867820541385215e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>8.490445682007452e-06</v>
+        <v>6.734713832099928e-06</v>
       </c>
       <c r="G175" t="n">
-        <v>1.042470253444522e-05</v>
+        <v>8.476426226410736e-06</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5494999531009341</v>
+        <v>3.89444527407963</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9685066653778018</v>
+        <v>0.4204795685871586</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1373749882752335</v>
+        <v>0.9736113185199076</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002250078656281502</v>
+        <v>0.0002325417422859975</v>
       </c>
       <c r="C176" t="n">
-        <v>4.955245138187943e-06</v>
+        <v>7.388991733605222e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>7.605270320473572e-06</v>
+        <v>1.506528564810974e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>5.617632496602924e-06</v>
+        <v>5.908742587858088e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>1.043824084419136e-05</v>
+        <v>1.026988825468636e-05</v>
       </c>
       <c r="G176" t="n">
-        <v>1.259826986569525e-05</v>
+        <v>1.289895195934276e-05</v>
       </c>
       <c r="H176" t="n">
-        <v>4.428136665582378</v>
+        <v>1.663773225074586</v>
       </c>
       <c r="I176" t="n">
-        <v>0.3511538597411061</v>
+        <v>0.7972872580941889</v>
       </c>
       <c r="J176" t="n">
-        <v>1.107034166395594</v>
+        <v>0.4159433062686466</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003418223565192877</v>
+        <v>0.0003099691982310474</v>
       </c>
       <c r="C177" t="n">
-        <v>1.550722511926381e-05</v>
+        <v>1.612208737662767e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>-2.543334007606762e-06</v>
+        <v>2.884805120035059e-05</v>
       </c>
       <c r="E177" t="n">
-        <v>8.580865562912871e-06</v>
+        <v>7.575001921597853e-06</v>
       </c>
       <c r="F177" t="n">
-        <v>1.581936772690824e-05</v>
+        <v>1.389231641729899e-05</v>
       </c>
       <c r="G177" t="n">
-        <v>1.916813609302193e-05</v>
+        <v>1.705503948068963e-05</v>
       </c>
       <c r="H177" t="n">
-        <v>1.91017528915649</v>
+        <v>7.632061087756382</v>
       </c>
       <c r="I177" t="n">
-        <v>0.7522755335379112</v>
+        <v>0.1060249862058408</v>
       </c>
       <c r="J177" t="n">
-        <v>0.4775438222891224</v>
+        <v>1.908015271939095</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004606227542224462</v>
+        <v>0.0003230032053109591</v>
       </c>
       <c r="C178" t="n">
-        <v>6.415672066437374e-05</v>
+        <v>-1.085176087248333e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.032755129572746e-05</v>
+        <v>1.274614637828807e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>1.118909247718224e-05</v>
+        <v>8.313469411457473e-06</v>
       </c>
       <c r="F178" t="n">
-        <v>2.022050124313786e-05</v>
+        <v>1.460455034334333e-05</v>
       </c>
       <c r="G178" t="n">
-        <v>2.515378460696284e-05</v>
+        <v>1.789741611690079e-05</v>
       </c>
       <c r="H178" t="n">
-        <v>7.402209478324326</v>
+        <v>2.125498404371822</v>
       </c>
       <c r="I178" t="n">
-        <v>0.1160995568584744</v>
+        <v>0.7126894232673676</v>
       </c>
       <c r="J178" t="n">
-        <v>1.850552369581081</v>
+        <v>0.5313746010929554</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
-        <v>0.000480921322394668</v>
+        <v>0.0003111060546336464</v>
       </c>
       <c r="C179" t="n">
-        <v>8.388125690551569e-06</v>
+        <v>1.038086950449991e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>-1.181016246398141e-05</v>
+        <v>8.733992230463021e-06</v>
       </c>
       <c r="E179" t="n">
-        <v>1.222902169715382e-05</v>
+        <v>8.094337469962261e-06</v>
       </c>
       <c r="F179" t="n">
-        <v>2.257980928535242e-05</v>
+        <v>1.420526271227809e-05</v>
       </c>
       <c r="G179" t="n">
-        <v>2.681681686720824e-05</v>
+        <v>1.781682708014984e-05</v>
       </c>
       <c r="H179" t="n">
-        <v>2.068896728528353</v>
+        <v>3.349284921228791</v>
       </c>
       <c r="I179" t="n">
-        <v>0.7230885010752012</v>
+        <v>0.5011615630311297</v>
       </c>
       <c r="J179" t="n">
-        <v>0.5172241821320882</v>
+        <v>0.8373212303071976</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0004581650356769631</v>
+        <v>0.0002811354379809007</v>
       </c>
       <c r="C180" t="n">
-        <v>4.005946791190275e-05</v>
+        <v>3.5977658082526e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.75827345248932e-05</v>
+        <v>7.41417666872546e-06</v>
       </c>
       <c r="E180" t="n">
-        <v>1.176936521646227e-05</v>
+        <v>7.544100777634696e-06</v>
       </c>
       <c r="F180" t="n">
-        <v>2.1534356343107e-05</v>
+        <v>1.306415732240818e-05</v>
       </c>
       <c r="G180" t="n">
-        <v>2.633913483865533e-05</v>
+        <v>1.616855022072e-05</v>
       </c>
       <c r="H180" t="n">
-        <v>1.806179544963755</v>
+        <v>1.404459732506653</v>
       </c>
       <c r="I180" t="n">
-        <v>0.7713515746607721</v>
+        <v>0.8434195240936679</v>
       </c>
       <c r="J180" t="n">
-        <v>0.4515448862409388</v>
+        <v>0.3511149331266634</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
-        <v>0.000409411088449274</v>
+        <v>0.0002784075371153608</v>
       </c>
       <c r="C181" t="n">
-        <v>2.254898831506206e-05</v>
+        <v>2.683840873695325e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>4.527971830765648e-07</v>
+        <v>3.654119618838017e-06</v>
       </c>
       <c r="E181" t="n">
-        <v>1.083763211834171e-05</v>
+        <v>6.798301441864984e-06</v>
       </c>
       <c r="F181" t="n">
-        <v>2.015282656952999e-05</v>
+        <v>1.215407393411521e-05</v>
       </c>
       <c r="G181" t="n">
-        <v>2.395986396939573e-05</v>
+        <v>1.522301763041202e-05</v>
       </c>
       <c r="H181" t="n">
-        <v>0.4833457087064804</v>
+        <v>3.290009282700576</v>
       </c>
       <c r="I181" t="n">
-        <v>0.9751018929737614</v>
+        <v>0.5105167549358274</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1208364271766201</v>
+        <v>0.8225023206751441</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0004121030792705593</v>
+        <v>0.0002496076177388872</v>
       </c>
       <c r="C182" t="n">
-        <v>5.681520217087565e-05</v>
+        <v>-6.902318574208201e-06</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.73599311774123e-05</v>
+        <v>8.772993737569761e-06</v>
       </c>
       <c r="E182" t="n">
-        <v>9.961086466960192e-06</v>
+        <v>7.236651146845969e-06</v>
       </c>
       <c r="F182" t="n">
-        <v>1.824693582020928e-05</v>
+        <v>1.26143664835935e-05</v>
       </c>
       <c r="G182" t="n">
-        <v>2.253349984825801e-05</v>
+        <v>1.532480834355604e-05</v>
       </c>
       <c r="H182" t="n">
-        <v>1.218744392813205</v>
+        <v>3.965968423897346</v>
       </c>
       <c r="I182" t="n">
-        <v>0.8750029391717183</v>
+        <v>0.4106311145135854</v>
       </c>
       <c r="J182" t="n">
-        <v>0.3046860982033012</v>
+        <v>0.9914921059743365</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003653073238187476</v>
+        <v>0.0002127388886521917</v>
       </c>
       <c r="C183" t="n">
-        <v>1.015330987605439e-05</v>
+        <v>3.80222795174628e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.204095277097946e-05</v>
+        <v>9.707943087360613e-06</v>
       </c>
       <c r="E183" t="n">
-        <v>1.046106443328154e-05</v>
+        <v>6.773640174560957e-06</v>
       </c>
       <c r="F183" t="n">
-        <v>1.941006012662403e-05</v>
+        <v>1.145183079978477e-05</v>
       </c>
       <c r="G183" t="n">
-        <v>2.270563098329106e-05</v>
+        <v>1.456750011826484e-05</v>
       </c>
       <c r="H183" t="n">
-        <v>4.731700540687911</v>
+        <v>6.127261146339854</v>
       </c>
       <c r="I183" t="n">
-        <v>0.3159505204440636</v>
+        <v>0.1898437773899609</v>
       </c>
       <c r="J183" t="n">
-        <v>1.182925135171978</v>
+        <v>1.531815286584963</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0003096211811717615</v>
+        <v>0.0001949570547108702</v>
       </c>
       <c r="C184" t="n">
-        <v>1.279115445923577e-05</v>
+        <v>-7.934218458533485e-06</v>
       </c>
       <c r="D184" t="n">
-        <v>9.42125240731257e-06</v>
+        <v>1.501800394502551e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>9.673774947462921e-06</v>
+        <v>5.618797335949491e-06</v>
       </c>
       <c r="F184" t="n">
-        <v>1.811545687287759e-05</v>
+        <v>9.968155790901345e-06</v>
       </c>
       <c r="G184" t="n">
-        <v>2.167252715416765e-05</v>
+        <v>1.192415587474747e-05</v>
       </c>
       <c r="H184" t="n">
-        <v>6.898512195941716</v>
+        <v>5.155927607893263</v>
       </c>
       <c r="I184" t="n">
-        <v>0.1413495773754712</v>
+        <v>0.2716692527329606</v>
       </c>
       <c r="J184" t="n">
-        <v>1.724628048985429</v>
+        <v>1.288981901973316</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0002836794488741865</v>
+        <v>0.0001918415410961279</v>
       </c>
       <c r="C185" t="n">
-        <v>1.443627906575935e-05</v>
+        <v>1.425233307544372e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>-1.097150205404295e-05</v>
+        <v>1.681686436692028e-05</v>
       </c>
       <c r="E185" t="n">
-        <v>8.125189225116785e-06</v>
+        <v>5.635344461578799e-06</v>
       </c>
       <c r="F185" t="n">
-        <v>1.482091542487701e-05</v>
+        <v>9.98662903600467e-06</v>
       </c>
       <c r="G185" t="n">
-        <v>1.739164373579234e-05</v>
+        <v>1.248568295404798e-05</v>
       </c>
       <c r="H185" t="n">
-        <v>9.373665017600494</v>
+        <v>5.451766216497949</v>
       </c>
       <c r="I185" t="n">
-        <v>0.05240888753971864</v>
+        <v>0.2440019142395766</v>
       </c>
       <c r="J185" t="n">
-        <v>2.343416254400124</v>
+        <v>1.362941554124487</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0002879401104195223</v>
+        <v>0.0001902101695717868</v>
       </c>
       <c r="C186" t="n">
-        <v>3.970433801162436e-05</v>
+        <v>5.454898900373331e-06</v>
       </c>
       <c r="D186" t="n">
-        <v>-6.123511411120451e-06</v>
+        <v>1.602859099451403e-05</v>
       </c>
       <c r="E186" t="n">
-        <v>8.272888540660509e-06</v>
+        <v>5.036813301944953e-06</v>
       </c>
       <c r="F186" t="n">
-        <v>1.537061057014632e-05</v>
+        <v>8.962254205314362e-06</v>
       </c>
       <c r="G186" t="n">
-        <v>1.871611253636126e-05</v>
+        <v>1.119612992297095e-05</v>
       </c>
       <c r="H186" t="n">
-        <v>1.896545597304291</v>
+        <v>6.393277533978766</v>
       </c>
       <c r="I186" t="n">
-        <v>0.7547795471800045</v>
+        <v>0.1716401996481488</v>
       </c>
       <c r="J186" t="n">
-        <v>0.4741363993260728</v>
+        <v>1.598319383494692</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0002812082918764282</v>
+        <v>0.0001882995976859306</v>
       </c>
       <c r="C187" t="n">
-        <v>2.795433814566599e-05</v>
+        <v>1.009330713515078e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>-5.624116221183148e-06</v>
+        <v>-2.424859538735979e-06</v>
       </c>
       <c r="E187" t="n">
-        <v>7.369404917839989e-06</v>
+        <v>5.208846734355941e-06</v>
       </c>
       <c r="F187" t="n">
-        <v>1.338219137849867e-05</v>
+        <v>9.146019092159652e-06</v>
       </c>
       <c r="G187" t="n">
-        <v>1.649493736868762e-05</v>
+        <v>1.134085061123665e-05</v>
       </c>
       <c r="H187" t="n">
-        <v>8.092224204234601</v>
+        <v>5.433304876108532</v>
       </c>
       <c r="I187" t="n">
-        <v>0.08825772636620216</v>
+        <v>0.2456545355312974</v>
       </c>
       <c r="J187" t="n">
-        <v>2.02305605105865</v>
+        <v>1.358326219027133</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0002789913701197042</v>
+        <v>0.0001767845168106176</v>
       </c>
       <c r="C188" t="n">
-        <v>3.474046706897582e-05</v>
+        <v>-7.206608270786616e-06</v>
       </c>
       <c r="D188" t="n">
-        <v>-2.972377512528042e-05</v>
+        <v>3.190580002616753e-05</v>
       </c>
       <c r="E188" t="n">
-        <v>7.593944477523301e-06</v>
+        <v>5.021467728281479e-06</v>
       </c>
       <c r="F188" t="n">
-        <v>1.389344757536424e-05</v>
+        <v>8.830583904888791e-06</v>
       </c>
       <c r="G188" t="n">
-        <v>1.677827394450112e-05</v>
+        <v>1.109431221054794e-05</v>
       </c>
       <c r="H188" t="n">
-        <v>1.85044915820782</v>
+        <v>15.33770654905063</v>
       </c>
       <c r="I188" t="n">
-        <v>0.7632406072497293</v>
+        <v>0.004049682661625967</v>
       </c>
       <c r="J188" t="n">
-        <v>0.4626122895519549</v>
+        <v>3.834426637262657</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002626354502740884</v>
+        <v>0.0001988761842748653</v>
       </c>
       <c r="C189" t="n">
-        <v>-6.219056613521938e-08</v>
+        <v>-3.603114782095069e-07</v>
       </c>
       <c r="D189" t="n">
-        <v>2.88015565416621e-05</v>
+        <v>1.177454161998111e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>7.354349455566015e-06</v>
+        <v>4.959523926561286e-06</v>
       </c>
       <c r="F189" t="n">
-        <v>1.3612708674559e-05</v>
+        <v>8.860421755949097e-06</v>
       </c>
       <c r="G189" t="n">
-        <v>1.647462611591452e-05</v>
+        <v>1.104822683492253e-05</v>
       </c>
       <c r="H189" t="n">
-        <v>18.38331413837475</v>
+        <v>8.757781507075341</v>
       </c>
       <c r="I189" t="n">
-        <v>0.001038386079337234</v>
+        <v>0.0674473098823396</v>
       </c>
       <c r="J189" t="n">
-        <v>4.595828534593687</v>
+        <v>2.189445376768835</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002945385923755391</v>
+        <v>0.0002296897737491856</v>
       </c>
       <c r="C190" t="n">
-        <v>1.436269681709436e-05</v>
+        <v>2.728176711433889e-06</v>
       </c>
       <c r="D190" t="n">
-        <v>-3.202386192416697e-06</v>
+        <v>2.271221175684295e-05</v>
       </c>
       <c r="E190" t="n">
-        <v>7.287328069711172e-06</v>
+        <v>5.730455449189398e-06</v>
       </c>
       <c r="F190" t="n">
-        <v>1.317984626072017e-05</v>
+        <v>1.036694745153622e-05</v>
       </c>
       <c r="G190" t="n">
-        <v>1.631056762686376e-05</v>
+        <v>1.272558790113018e-05</v>
       </c>
       <c r="H190" t="n">
-        <v>8.909406047320028</v>
+        <v>2.704538530635095</v>
       </c>
       <c r="I190" t="n">
-        <v>0.06340422071376406</v>
+        <v>0.6084206618073787</v>
       </c>
       <c r="J190" t="n">
-        <v>2.227351511830007</v>
+        <v>0.6761346326587738</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0003413252131505258</v>
+        <v>0.0002609951062288512</v>
       </c>
       <c r="C191" t="n">
-        <v>2.617743183737375e-05</v>
+        <v>-8.101654580017247e-06</v>
       </c>
       <c r="D191" t="n">
-        <v>5.66642188019851e-07</v>
+        <v>1.979293462846005e-05</v>
       </c>
       <c r="E191" t="n">
-        <v>8.458617935491363e-06</v>
+        <v>6.398938478962966e-06</v>
       </c>
       <c r="F191" t="n">
-        <v>1.530854258331167e-05</v>
+        <v>1.1454231020251e-05</v>
       </c>
       <c r="G191" t="n">
-        <v>1.875921734164356e-05</v>
+        <v>1.412097113378852e-05</v>
       </c>
       <c r="H191" t="n">
-        <v>3.897338043615436</v>
+        <v>8.185298596380457</v>
       </c>
       <c r="I191" t="n">
-        <v>0.4200778900847826</v>
+        <v>0.0850215000907184</v>
       </c>
       <c r="J191" t="n">
-        <v>0.974334510903859</v>
+        <v>2.046324649095114</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003873352567419974</v>
+        <v>0.0002962219134575351</v>
       </c>
       <c r="C192" t="n">
-        <v>6.10455904700668e-06</v>
+        <v>1.06968156286906e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>1.764548268489438e-06</v>
+        <v>1.078754321340053e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>9.440126804133253e-06</v>
+        <v>7.07180140451223e-06</v>
       </c>
       <c r="F192" t="n">
-        <v>1.705272792953162e-05</v>
+        <v>1.254269339442413e-05</v>
       </c>
       <c r="G192" t="n">
-        <v>2.090361578645211e-05</v>
+        <v>1.577804141534649e-05</v>
       </c>
       <c r="H192" t="n">
-        <v>9.793124841787948</v>
+        <v>6.838009010399253</v>
       </c>
       <c r="I192" t="n">
-        <v>0.04406044312678899</v>
+        <v>0.1447003741657071</v>
       </c>
       <c r="J192" t="n">
-        <v>2.448281210446987</v>
+        <v>1.709502252599813</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004371765650503262</v>
+        <v>0.0003439231828168512</v>
       </c>
       <c r="C193" t="n">
-        <v>1.91368925048442e-05</v>
+        <v>2.011451820965173e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>1.211650507595182e-05</v>
+        <v>1.810999702662113e-05</v>
       </c>
       <c r="E193" t="n">
-        <v>1.034367220648316e-05</v>
+        <v>8.106098408907306e-06</v>
       </c>
       <c r="F193" t="n">
-        <v>1.904675472276437e-05</v>
+        <v>1.454180846845825e-05</v>
       </c>
       <c r="G193" t="n">
-        <v>2.33388168467705e-05</v>
+        <v>1.821152308196328e-05</v>
       </c>
       <c r="H193" t="n">
-        <v>6.142101384815615</v>
+        <v>4.337949985663145</v>
       </c>
       <c r="I193" t="n">
-        <v>0.1887844160308682</v>
+        <v>0.3621970771276626</v>
       </c>
       <c r="J193" t="n">
-        <v>1.535525346203904</v>
+        <v>1.084487496415786</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0005084402050387626</v>
+        <v>0.0003890598420051698</v>
       </c>
       <c r="C194" t="n">
-        <v>4.030438773582268e-05</v>
+        <v>2.462715838922382e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>1.021491858577085e-05</v>
+        <v>8.740969008222215e-06</v>
       </c>
       <c r="E194" t="n">
-        <v>1.189777793737795e-05</v>
+        <v>9.162679455997065e-06</v>
       </c>
       <c r="F194" t="n">
-        <v>2.182676488381293e-05</v>
+        <v>1.651184350085402e-05</v>
       </c>
       <c r="G194" t="n">
-        <v>2.689950443739583e-05</v>
+        <v>2.042171359591516e-05</v>
       </c>
       <c r="H194" t="n">
-        <v>4.208282110898365</v>
+        <v>2.209176745676229</v>
       </c>
       <c r="I194" t="n">
-        <v>0.3785511747914774</v>
+        <v>0.697349560674154</v>
       </c>
       <c r="J194" t="n">
-        <v>1.052070527724591</v>
+        <v>0.5522941864190571</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0005752537881205118</v>
+        <v>0.0003709883750739037</v>
       </c>
       <c r="C195" t="n">
-        <v>5.81266751456323e-05</v>
+        <v>1.380974905468082e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>-2.053061135485167e-05</v>
+        <v>3.492901719035808e-05</v>
       </c>
       <c r="E195" t="n">
-        <v>1.346881870182147e-05</v>
+        <v>8.531549369878616e-06</v>
       </c>
       <c r="F195" t="n">
-        <v>2.444177825010762e-05</v>
+        <v>1.559495588555676e-05</v>
       </c>
       <c r="G195" t="n">
-        <v>3.005845529537255e-05</v>
+        <v>1.91962648618644e-05</v>
       </c>
       <c r="H195" t="n">
-        <v>0.9336785045789726</v>
+        <v>3.709317031047726</v>
       </c>
       <c r="I195" t="n">
-        <v>0.919680147692252</v>
+        <v>0.4467722648321751</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2334196261447432</v>
+        <v>0.9273292577619315</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0005501653655814011</v>
+        <v>0.0003749157563009049</v>
       </c>
       <c r="C196" t="n">
-        <v>4.066947860896785e-05</v>
+        <v>1.357474737025263e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>1.854158056624868e-05</v>
+        <v>1.588809194945817e-05</v>
       </c>
       <c r="E196" t="n">
-        <v>1.261463171763105e-05</v>
+        <v>8.519571816877566e-06</v>
       </c>
       <c r="F196" t="n">
-        <v>2.297459190856399e-05</v>
+        <v>1.526277268582184e-05</v>
       </c>
       <c r="G196" t="n">
-        <v>2.832114036345887e-05</v>
+        <v>1.903420220829597e-05</v>
       </c>
       <c r="H196" t="n">
-        <v>4.976787641202487</v>
+        <v>3.936967999702516</v>
       </c>
       <c r="I196" t="n">
-        <v>0.2896875317429069</v>
+        <v>0.4146035091335231</v>
       </c>
       <c r="J196" t="n">
-        <v>1.244196910300622</v>
+        <v>0.9842419999256291</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0005483262143721019</v>
+        <v>0.0003374848580031055</v>
       </c>
       <c r="C197" t="n">
-        <v>3.870653402900901e-05</v>
+        <v>2.07425123798082e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>7.119446984215358e-06</v>
+        <v>3.01957369901743e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>1.240711779000638e-05</v>
+        <v>7.687114638061279e-06</v>
       </c>
       <c r="F197" t="n">
-        <v>2.245478559473698e-05</v>
+        <v>1.389038820746666e-05</v>
       </c>
       <c r="G197" t="n">
-        <v>2.789810997931038e-05</v>
+        <v>1.715765827523211e-05</v>
       </c>
       <c r="H197" t="n">
-        <v>4.110049259447459</v>
+        <v>1.708267875658555</v>
       </c>
       <c r="I197" t="n">
-        <v>0.3913171294290317</v>
+        <v>0.7892152113176522</v>
       </c>
       <c r="J197" t="n">
-        <v>1.027512314861865</v>
+        <v>0.4270669689146387</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0005004035995253925</v>
+        <v>0.0003315565408277864</v>
       </c>
       <c r="C198" t="n">
-        <v>4.60421581364429e-05</v>
+        <v>1.468170142801447e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.945941262769828e-05</v>
+        <v>2.216712364494912e-05</v>
       </c>
       <c r="E198" t="n">
-        <v>1.135314007137669e-05</v>
+        <v>7.46139424752458e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>2.050287633340533e-05</v>
+        <v>1.360867893699352e-05</v>
       </c>
       <c r="G198" t="n">
-        <v>2.530400141663516e-05</v>
+        <v>1.685156207734989e-05</v>
       </c>
       <c r="H198" t="n">
-        <v>0.08795297048435319</v>
+        <v>3.013419883059733</v>
       </c>
       <c r="I198" t="n">
-        <v>0.9990609214607115</v>
+        <v>0.5555821319829128</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0219882426210883</v>
+        <v>0.7533549707649333</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0004909967684430626</v>
+        <v>0.0002945697218428833</v>
       </c>
       <c r="C199" t="n">
-        <v>3.839172852701148e-05</v>
+        <v>1.709717494742185e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>7.601011308091491e-06</v>
+        <v>1.506318417298193e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>1.102963402287044e-05</v>
+        <v>6.650610947571693e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>1.993282406386374e-05</v>
+        <v>1.208809930921872e-05</v>
       </c>
       <c r="G199" t="n">
-        <v>2.481080755184484e-05</v>
+        <v>1.48624263541834e-05</v>
       </c>
       <c r="H199" t="n">
-        <v>3.110951622929131</v>
+        <v>3.643852097136172</v>
       </c>
       <c r="I199" t="n">
-        <v>0.5394326296750473</v>
+        <v>0.4563448976757984</v>
       </c>
       <c r="J199" t="n">
-        <v>0.7777379057322829</v>
+        <v>0.910963024284043</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0004364559862523</v>
+        <v>0.0002825518522778923</v>
       </c>
       <c r="C200" t="n">
-        <v>4.311499899451956e-05</v>
+        <v>1.063578672435111e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.385403862286892e-05</v>
+        <v>1.617823964533444e-05</v>
       </c>
       <c r="E200" t="n">
-        <v>9.835365989743975e-06</v>
+        <v>6.308343903105439e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>1.761131716758627e-05</v>
+        <v>1.157908771167115e-05</v>
       </c>
       <c r="G200" t="n">
-        <v>2.186970609705032e-05</v>
+        <v>1.421135497778455e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>1.113636656602172</v>
+        <v>3.164140079106837</v>
       </c>
       <c r="I200" t="n">
-        <v>0.8921026069006018</v>
+        <v>0.5307423344265539</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2784091641505431</v>
+        <v>0.7910350197767093</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0004186155211255627</v>
+        <v>0.0002753785995543116</v>
       </c>
       <c r="C201" t="n">
-        <v>3.426149825663471e-05</v>
+        <v>9.870812387048242e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>-4.740566187271368e-06</v>
+        <v>7.06664492499049e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>9.345455412609477e-06</v>
+        <v>6.142050649388578e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>1.676894525754089e-05</v>
+        <v>1.122743799715868e-05</v>
       </c>
       <c r="G201" t="n">
-        <v>2.089954308548751e-05</v>
+        <v>1.371278051012744e-05</v>
       </c>
       <c r="H201" t="n">
-        <v>2.923600205041985</v>
+        <v>2.299788120372396</v>
       </c>
       <c r="I201" t="n">
-        <v>0.5706910573478877</v>
+        <v>0.6808076305378876</v>
       </c>
       <c r="J201" t="n">
-        <v>0.7309000512604962</v>
+        <v>0.5749470300930989</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0004078579866087921</v>
+        <v>0.0003511987163355977</v>
       </c>
       <c r="C202" t="n">
-        <v>3.158876848575949e-05</v>
+        <v>1.262684725205894e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.428509550388101e-05</v>
+        <v>1.244210346025868e-05</v>
       </c>
       <c r="E202" t="n">
-        <v>9.09005234891918e-06</v>
+        <v>8.103523438175696e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>1.629156194820387e-05</v>
+        <v>1.464552966687978e-05</v>
       </c>
       <c r="G202" t="n">
-        <v>2.014384286172468e-05</v>
+        <v>1.801829169425613e-05</v>
       </c>
       <c r="H202" t="n">
-        <v>0.8301058740131846</v>
+        <v>1.492012385586843</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9343669897346245</v>
+        <v>0.828055424913244</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2075264685032961</v>
+        <v>0.3730030963967107</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0005208276875228143</v>
+        <v>0.0003072041915850527</v>
       </c>
       <c r="C203" t="n">
-        <v>3.64519663237844e-05</v>
+        <v>1.148200421897881e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>-8.231760679035856e-06</v>
+        <v>1.821189318277976e-05</v>
       </c>
       <c r="E203" t="n">
-        <v>1.196976052123072e-05</v>
+        <v>6.776140435589064e-06</v>
       </c>
       <c r="F203" t="n">
-        <v>2.166795373680533e-05</v>
+        <v>1.238754580812755e-05</v>
       </c>
       <c r="G203" t="n">
-        <v>2.664212283987183e-05</v>
+        <v>1.526755453469295e-05</v>
       </c>
       <c r="H203" t="n">
-        <v>1.036953755474368</v>
+        <v>3.013893581405874</v>
       </c>
       <c r="I203" t="n">
-        <v>0.904141775672011</v>
+        <v>0.5555030407373426</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2592384388685919</v>
+        <v>0.7534733953514685</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0004540872823982046</v>
+        <v>0.0003256632248796593</v>
       </c>
       <c r="C204" t="n">
-        <v>3.059928846185433e-05</v>
+        <v>1.064181408899116e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>8.395220001438633e-06</v>
+        <v>7.924433523706057e-07</v>
       </c>
       <c r="E204" t="n">
-        <v>1.000796123072449e-05</v>
+        <v>7.669238755149771e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>1.810092326773164e-05</v>
+        <v>1.358070509113597e-05</v>
       </c>
       <c r="G204" t="n">
-        <v>2.247019899065142e-05</v>
+        <v>1.691168628761885e-05</v>
       </c>
       <c r="H204" t="n">
-        <v>3.123774256753463</v>
+        <v>2.128635248704292</v>
       </c>
       <c r="I204" t="n">
-        <v>0.5373299280757682</v>
+        <v>0.7121135493903559</v>
       </c>
       <c r="J204" t="n">
-        <v>0.7809435641883659</v>
+        <v>0.532158812176073</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004802726122059146</v>
+        <v>0.0002955128106657019</v>
       </c>
       <c r="C205" t="n">
-        <v>2.190448923441356e-05</v>
+        <v>1.083771848663841e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>-5.346567603048478e-06</v>
+        <v>9.079837810125691e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>1.122416261166869e-05</v>
+        <v>6.965179118877571e-06</v>
       </c>
       <c r="F205" t="n">
-        <v>2.052586334274772e-05</v>
+        <v>1.252765326955802e-05</v>
       </c>
       <c r="G205" t="n">
-        <v>2.504149233747381e-05</v>
+        <v>1.541239555328975e-05</v>
       </c>
       <c r="H205" t="n">
-        <v>1.765960588232747</v>
+        <v>1.321959243283128</v>
       </c>
       <c r="I205" t="n">
-        <v>0.7787038208954421</v>
+        <v>0.8576389606677453</v>
       </c>
       <c r="J205" t="n">
-        <v>0.4414901470581867</v>
+        <v>0.3304898108207819</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.591709508781143</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0005224570746281767</v>
+        <v>0.0002774616925699016</v>
       </c>
       <c r="C206" t="n">
-        <v>3.560697603289089e-05</v>
+        <v>8.94433363453424e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>1.856401983000092e-05</v>
+        <v>1.458621032127247e-05</v>
       </c>
       <c r="E206" t="n">
-        <v>1.167077533779974e-05</v>
+        <v>6.583462613560762e-06</v>
       </c>
       <c r="F206" t="n">
-        <v>2.115849336654147e-05</v>
+        <v>1.18662634941358e-05</v>
       </c>
       <c r="G206" t="n">
-        <v>2.620587083961377e-05</v>
+        <v>1.462145177673e-05</v>
       </c>
       <c r="H206" t="n">
-        <v>4.11136161099346</v>
+        <v>1.794771409821559</v>
       </c>
       <c r="I206" t="n">
-        <v>0.3911444350469784</v>
+        <v>0.7734388169962629</v>
       </c>
       <c r="J206" t="n">
-        <v>1.027840402748365</v>
+        <v>0.4486928524553898</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004369572234169936</v>
+        <v>0.0002636577314520728</v>
       </c>
       <c r="C207" t="n">
-        <v>3.285246217318161e-05</v>
+        <v>1.163272115496821e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>-1.148203924907789e-05</v>
+        <v>1.029840192909141e-05</v>
       </c>
       <c r="E207" t="n">
-        <v>1.024908609569504e-05</v>
+        <v>6.28165006047511e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>1.851635305964215e-05</v>
+        <v>1.125100389480918e-05</v>
       </c>
       <c r="G207" t="n">
-        <v>2.271517221253879e-05</v>
+        <v>1.40208230225489e-05</v>
       </c>
       <c r="H207" t="n">
-        <v>0.8106645958255664</v>
+        <v>3.001071756723819</v>
       </c>
       <c r="I207" t="n">
-        <v>0.9370126351762692</v>
+        <v>0.5576460604556928</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2026661489563916</v>
+        <v>0.7502679391809548</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0004113022033583369</v>
+        <v>0.0002482000117187046</v>
       </c>
       <c r="C208" t="n">
-        <v>2.649442417573431e-05</v>
+        <v>8.84199925410827e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>-3.090163592257768e-06</v>
+        <v>4.224321143429116e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>9.703829635954295e-06</v>
+        <v>5.996512284915938e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>1.766236811312747e-05</v>
+        <v>1.061648898054665e-05</v>
       </c>
       <c r="G208" t="n">
-        <v>2.160404746457481e-05</v>
+        <v>1.315048618826459e-05</v>
       </c>
       <c r="H208" t="n">
-        <v>1.479066226473369</v>
+        <v>1.046065177593921</v>
       </c>
       <c r="I208" t="n">
-        <v>0.8303430405231265</v>
+        <v>0.902732397880217</v>
       </c>
       <c r="J208" t="n">
-        <v>0.3697665566183423</v>
+        <v>0.2615162943984802</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003904624484664802</v>
+        <v>0.000229638772543721</v>
       </c>
       <c r="C209" t="n">
-        <v>2.674968216233816e-05</v>
+        <v>1.037861294244031e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.803639148784662e-06</v>
+        <v>-2.972788671072092e-07</v>
       </c>
       <c r="E209" t="n">
-        <v>9.239042109682117e-06</v>
+        <v>5.274759560531406e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>1.685253146131759e-05</v>
+        <v>9.458394742138194e-06</v>
       </c>
       <c r="G209" t="n">
-        <v>2.072964151228556e-05</v>
+        <v>1.171081946999876e-05</v>
       </c>
       <c r="H209" t="n">
-        <v>2.481224645444317</v>
+        <v>1.89642569894324</v>
       </c>
       <c r="I209" t="n">
-        <v>0.6480009375122846</v>
+        <v>0.7548015706724458</v>
       </c>
       <c r="J209" t="n">
-        <v>0.6203061613610793</v>
+        <v>0.47410642473581</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003666861477546075</v>
+        <v>0.000232783065995398</v>
       </c>
       <c r="C210" t="n">
-        <v>1.657619715274497e-05</v>
+        <v>1.233882676022883e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>1.755604925912408e-06</v>
+        <v>5.024397965818677e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>8.778464083709565e-06</v>
+        <v>5.543261266697815e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>1.618974306068978e-05</v>
+        <v>9.975422458058987e-06</v>
       </c>
       <c r="G210" t="n">
-        <v>1.949604259460998e-05</v>
+        <v>1.217635820753878e-05</v>
       </c>
       <c r="H210" t="n">
-        <v>0.729525724455603</v>
+        <v>2.401612854157857</v>
       </c>
       <c r="I210" t="n">
-        <v>0.947638502441704</v>
+        <v>0.6623358164130947</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1823814311139008</v>
+        <v>0.6004032135394642</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003402404330485959</v>
+        <v>0.0001199122663674994</v>
       </c>
       <c r="C211" t="n">
-        <v>2.340625370145192e-05</v>
+        <v>4.52655657993518e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>-1.203377286023978e-05</v>
+        <v>2.857810829506771e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>7.778717368888731e-06</v>
+        <v>2.78709009077414e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>1.406943962625605e-05</v>
+        <v>5.042878855746626e-06</v>
       </c>
       <c r="G211" t="n">
-        <v>1.73255851836118e-05</v>
+        <v>6.25145141129856e-06</v>
       </c>
       <c r="H211" t="n">
-        <v>0.7480603522802067</v>
+        <v>5.997396638739467</v>
       </c>
       <c r="I211" t="n">
-        <v>0.9452725122345452</v>
+        <v>0.1993427784351912</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1870150880700517</v>
+        <v>1.499349159684867</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.600536472713462</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003655350782827957</v>
+        <v>4.969835278029997e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>2.438353547426172e-05</v>
+        <v>1.694782931279397e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>2.236682214731454e-06</v>
+        <v>2.240324524438103e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>8.293699665336776e-06</v>
+        <v>1.251913723394324e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>1.495955028259692e-05</v>
+        <v>2.212707965778981e-06</v>
       </c>
       <c r="G212" t="n">
-        <v>1.857758056653115e-05</v>
+        <v>2.761041776842343e-06</v>
       </c>
       <c r="H212" t="n">
-        <v>3.502760267001464</v>
+        <v>4.443863720851814</v>
       </c>
       <c r="I212" t="n">
-        <v>0.4774587639608064</v>
+        <v>0.3492557824849288</v>
       </c>
       <c r="J212" t="n">
-        <v>0.8756900667503661</v>
+        <v>1.110965930212954</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003456317235534005</v>
+        <v>3.083400906506781e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>1.917316483169369e-05</v>
+        <v>3.645160588676989e-07</v>
       </c>
       <c r="D213" t="n">
-        <v>-1.698262118312178e-05</v>
+        <v>1.749160371468411e-06</v>
       </c>
       <c r="E213" t="n">
-        <v>8.188305729116887e-06</v>
+        <v>8.003870754657303e-07</v>
       </c>
       <c r="F213" t="n">
-        <v>1.471343441205327e-05</v>
+        <v>1.40437266888956e-06</v>
       </c>
       <c r="G213" t="n">
-        <v>1.797242710579378e-05</v>
+        <v>1.731270994482933e-06</v>
       </c>
       <c r="H213" t="n">
-        <v>0.8635019870130338</v>
+        <v>3.166171838405549</v>
       </c>
       <c r="I213" t="n">
-        <v>0.9297376519538355</v>
+        <v>0.5304120390531866</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2158754967532585</v>
+        <v>0.7915429596013872</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.603295970175799</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0004115155583106197</v>
+        <v>4.352151316491228e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>2.407979255220419e-05</v>
+        <v>1.073199477180177e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>7.690385722658e-06</v>
+        <v>5.622551277353582e-06</v>
       </c>
       <c r="E214" t="n">
-        <v>9.26918018948313e-06</v>
+        <v>1.0522204227474e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>1.67717892138874e-05</v>
+        <v>1.906169048782136e-06</v>
       </c>
       <c r="G214" t="n">
-        <v>2.072259483708465e-05</v>
+        <v>2.328447625275708e-06</v>
       </c>
       <c r="H214" t="n">
-        <v>4.797133967741131</v>
+        <v>0.8958032460406985</v>
       </c>
       <c r="I214" t="n">
-        <v>0.3087531723032523</v>
+        <v>0.9251621391453245</v>
       </c>
       <c r="J214" t="n">
-        <v>1.199283491935283</v>
+        <v>0.2239508115101746</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.604949954679621</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002855085741792334</v>
+        <v>2.707097121328581e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>2.663266200980945e-05</v>
+        <v>7.495176675690105e-07</v>
       </c>
       <c r="D215" t="n">
-        <v>1.700410268557612e-07</v>
+        <v>1.391710594945977e-06</v>
       </c>
       <c r="E215" t="n">
-        <v>6.424718055115619e-06</v>
+        <v>6.849733249669361e-07</v>
       </c>
       <c r="F215" t="n">
-        <v>1.152429329167388e-05</v>
+        <v>1.220018117646306e-06</v>
       </c>
       <c r="G215" t="n">
-        <v>1.437304263136171e-05</v>
+        <v>1.495746285137155e-06</v>
       </c>
       <c r="H215" t="n">
-        <v>4.072185669069285</v>
+        <v>0.8692634399246908</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3963247224513428</v>
+        <v>0.9289284654236025</v>
       </c>
       <c r="J215" t="n">
-        <v>1.018046417267321</v>
+        <v>0.2173158599811727</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0001778644989133921</v>
+        <v>2.202146782133933e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>1.621618866242834e-05</v>
+        <v>1.262218923436258e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>-9.897950152906092e-06</v>
+        <v>1.198190185759066e-06</v>
       </c>
       <c r="E216" t="n">
-        <v>4.120757062673105e-06</v>
+        <v>5.636590487583302e-07</v>
       </c>
       <c r="F216" t="n">
-        <v>7.348068105793272e-06</v>
+        <v>9.885187140227279e-07</v>
       </c>
       <c r="G216" t="n">
-        <v>9.197631505492025e-06</v>
+        <v>1.247698020402507e-06</v>
       </c>
       <c r="H216" t="n">
-        <v>3.609865700533863</v>
+        <v>3.716996242113864</v>
       </c>
       <c r="I216" t="n">
-        <v>0.4613707861680433</v>
+        <v>0.4456587445197053</v>
       </c>
       <c r="J216" t="n">
-        <v>0.9024664251334658</v>
+        <v>0.9292490605284661</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
-        <v>7.306983276644436e-05</v>
+        <v>1.886652949228223e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>5.330787621388863e-06</v>
+        <v>2.033439228270295e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>1.184722325260065e-07</v>
+        <v>-6.922662978805832e-08</v>
       </c>
       <c r="E217" t="n">
-        <v>1.82223865580358e-06</v>
+        <v>4.686690544387301e-07</v>
       </c>
       <c r="F217" t="n">
-        <v>3.344072496580185e-06</v>
+        <v>8.069217166373548e-07</v>
       </c>
       <c r="G217" t="n">
-        <v>4.086073415356561e-06</v>
+        <v>1.037093705317266e-06</v>
       </c>
       <c r="H217" t="n">
-        <v>5.823363810717642</v>
+        <v>1.987627902752094</v>
       </c>
       <c r="I217" t="n">
-        <v>0.2127336279219179</v>
+        <v>0.7380345878945089</v>
       </c>
       <c r="J217" t="n">
-        <v>1.45584095267941</v>
+        <v>0.4969069756880236</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
-        <v>4.531852329987476e-05</v>
+        <v>1.949256770175509e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1.314396384157788e-06</v>
+        <v>3.012686970500118e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>2.298564699264818e-06</v>
+        <v>-1.381909976238241e-06</v>
       </c>
       <c r="E218" t="n">
-        <v>1.162691605750973e-06</v>
+        <v>4.985130869698332e-07</v>
       </c>
       <c r="F218" t="n">
-        <v>2.177323809797367e-06</v>
+        <v>8.283027939955065e-07</v>
       </c>
       <c r="G218" t="n">
-        <v>2.585262378346136e-06</v>
+        <v>1.110604359012261e-06</v>
       </c>
       <c r="H218" t="n">
-        <v>3.497464655032265</v>
+        <v>12.504046836527</v>
       </c>
       <c r="I218" t="n">
-        <v>0.4782639539754708</v>
+        <v>0.01397139999758196</v>
       </c>
       <c r="J218" t="n">
-        <v>0.8743661637580662</v>
+        <v>3.126011709131749</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
-        <v>6.418590087740392e-05</v>
+        <v>2.737386301300021e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>4.172058347691635e-06</v>
+        <v>2.440640253971372e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>5.129286576964509e-06</v>
+        <v>3.238639044310563e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>1.539163216356746e-06</v>
+        <v>6.552313259866959e-07</v>
       </c>
       <c r="F219" t="n">
-        <v>2.849709661972956e-06</v>
+        <v>1.196374057926013e-06</v>
       </c>
       <c r="G219" t="n">
-        <v>3.440258324759654e-06</v>
+        <v>1.49117734456813e-06</v>
       </c>
       <c r="H219" t="n">
-        <v>3.105085806662628</v>
+        <v>5.586336776344588</v>
       </c>
       <c r="I219" t="n">
-        <v>0.5403961355254578</v>
+        <v>0.2322440008958808</v>
       </c>
       <c r="J219" t="n">
-        <v>0.776271451665657</v>
+        <v>1.396584194086147</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
-        <v>4.011168303657466e-05</v>
+        <v>5.134748437428754e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>2.339233568969537e-06</v>
+        <v>2.761592433053565e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>-4.173987879888165e-08</v>
+        <v>3.397449509937419e-06</v>
       </c>
       <c r="E220" t="n">
-        <v>1.003759994562765e-06</v>
+        <v>1.183062397843683e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>1.851675023762701e-06</v>
+        <v>2.126745042811632e-06</v>
       </c>
       <c r="G220" t="n">
-        <v>2.207896278655758e-06</v>
+        <v>2.637346306752989e-06</v>
       </c>
       <c r="H220" t="n">
-        <v>1.145139286598702</v>
+        <v>1.200897341804721</v>
       </c>
       <c r="I220" t="n">
-        <v>0.8870458149563775</v>
+        <v>0.877950854179042</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2862848216496754</v>
+        <v>0.3002243354511803</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
-        <v>3.253937951257727e-05</v>
+        <v>5.749407947633022e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>2.33410093756958e-06</v>
+        <v>2.689702878467449e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>1.517299911314498e-06</v>
+        <v>4.762313712895633e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>8.228327173093554e-07</v>
+        <v>1.324554877071822e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>1.531538889584623e-06</v>
+        <v>2.388602820463754e-06</v>
       </c>
       <c r="G221" t="n">
-        <v>1.861197834512949e-06</v>
+        <v>2.977517335803511e-06</v>
       </c>
       <c r="H221" t="n">
-        <v>3.486252260476462</v>
+        <v>3.192339765930579</v>
       </c>
       <c r="I221" t="n">
-        <v>0.4799717952261429</v>
+        <v>0.5261690942300639</v>
       </c>
       <c r="J221" t="n">
-        <v>0.8715630651191155</v>
+        <v>0.7980849414826447</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
-        <v>2.773249719516591e-05</v>
+        <v>5.053571319550639e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>1.899247804372061e-06</v>
+        <v>3.188706182661281e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>1.722462514634971e-06</v>
+        <v>3.150711556813764e-06</v>
       </c>
       <c r="E222" t="n">
-        <v>6.770722152319065e-07</v>
+        <v>1.146393750304085e-06</v>
       </c>
       <c r="F222" t="n">
-        <v>1.288614920563959e-06</v>
+        <v>2.074467309962653e-06</v>
       </c>
       <c r="G222" t="n">
-        <v>1.551397221964836e-06</v>
+        <v>2.595659546339099e-06</v>
       </c>
       <c r="H222" t="n">
-        <v>2.724833784648502</v>
+        <v>4.221124059019799</v>
       </c>
       <c r="I222" t="n">
-        <v>0.6048760666733484</v>
+        <v>0.3769063229075257</v>
       </c>
       <c r="J222" t="n">
-        <v>0.6812084461621255</v>
+        <v>1.05528101475495</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
-        <v>2.802278264587918e-05</v>
+        <v>4.51255200109887e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>2.159750984689827e-06</v>
+        <v>3.59119511877322e-06</v>
       </c>
       <c r="D223" t="n">
-        <v>2.263218908928753e-06</v>
+        <v>1.810452051479296e-06</v>
       </c>
       <c r="E223" t="n">
-        <v>6.982904779564518e-07</v>
+        <v>1.051442730470158e-06</v>
       </c>
       <c r="F223" t="n">
-        <v>1.360089234894744e-06</v>
+        <v>1.882285128463366e-06</v>
       </c>
       <c r="G223" t="n">
-        <v>1.642409613977691e-06</v>
+        <v>2.359773546774908e-06</v>
       </c>
       <c r="H223" t="n">
-        <v>12.88634544564771</v>
+        <v>1.531687746713829</v>
       </c>
       <c r="I223" t="n">
-        <v>0.01184469105956538</v>
+        <v>0.8210139468672701</v>
       </c>
       <c r="J223" t="n">
-        <v>3.221586361411927</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.070447864468124e-05</v>
-      </c>
-      <c r="C224" t="n">
-        <v>5.064685351400083e-06</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1.849388020672263e-06</v>
-      </c>
-      <c r="E224" t="n">
-        <v>9.688728885865174e-07</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1.784615101661929e-06</v>
-      </c>
-      <c r="G224" t="n">
-        <v>2.20548171309181e-06</v>
-      </c>
-      <c r="H224" t="n">
-        <v>5.885371372701094</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0.2078739174926958</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1.471342843175274</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="B225" t="n">
-        <v>7.574182510797006e-05</v>
-      </c>
-      <c r="C225" t="n">
-        <v>5.284457949863725e-06</v>
-      </c>
-      <c r="D225" t="n">
-        <v>3.408625828898787e-06</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1.734252504629526e-06</v>
-      </c>
-      <c r="F225" t="n">
-        <v>3.192944234935578e-06</v>
-      </c>
-      <c r="G225" t="n">
-        <v>3.911861736608092e-06</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1.544217965881725</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0.8187810002400095</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0.3860544914704312</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="B226" t="n">
-        <v>8.477073942835932e-05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>5.411115005084469e-06</v>
-      </c>
-      <c r="D226" t="n">
-        <v>5.431726699713544e-06</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1.94242442231877e-06</v>
-      </c>
-      <c r="F226" t="n">
-        <v>3.575781659589821e-06</v>
-      </c>
-      <c r="G226" t="n">
-        <v>4.394236287441592e-06</v>
-      </c>
-      <c r="H226" t="n">
-        <v>3.38645267322493</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0.4953520881627961</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0.8466131683062325</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B227" t="n">
-        <v>7.472288651521213e-05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>6.382437457895498e-06</v>
-      </c>
-      <c r="D227" t="n">
-        <v>2.402613660971602e-06</v>
-      </c>
-      <c r="E227" t="n">
-        <v>1.687481593651344e-06</v>
-      </c>
-      <c r="F227" t="n">
-        <v>3.078950547772481e-06</v>
-      </c>
-      <c r="G227" t="n">
-        <v>3.832628448406995e-06</v>
-      </c>
-      <c r="H227" t="n">
-        <v>4.493448690921231</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0.3433250025666937</v>
-      </c>
-      <c r="J227" t="n">
-        <v>1.123362172730308</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B228" t="n">
-        <v>6.646966576803413e-05</v>
-      </c>
-      <c r="C228" t="n">
-        <v>6.239456137905122e-06</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1.435388562391087e-06</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1.536494275737376e-06</v>
-      </c>
-      <c r="F228" t="n">
-        <v>2.824456954727174e-06</v>
-      </c>
-      <c r="G228" t="n">
-        <v>3.479376309275086e-06</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1.601102432193436</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0.8085939798874768</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0.4002756080483589</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="B229" t="n">
-        <v>6.848573980519988e-05</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.642146324463839e-06</v>
-      </c>
-      <c r="D229" t="n">
-        <v>6.457478228882353e-06</v>
-      </c>
-      <c r="E229" t="n">
-        <v>1.644559992698047e-06</v>
-      </c>
-      <c r="F229" t="n">
-        <v>3.068715125088734e-06</v>
-      </c>
-      <c r="G229" t="n">
-        <v>3.673134669300715e-06</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1.805166090223732</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0.7715370501610461</v>
-      </c>
-      <c r="J229" t="n">
-        <v>0.4512915225559329</v>
+        <v>0.3829219366784572</v>
       </c>
     </row>
   </sheetData>
